--- a/Q3andQ4/Test3.xlsx
+++ b/Q3andQ4/Test3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8715"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="6675" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,3004 +359,3004 @@
   <sheetData>
     <row r="1" spans="1:1000" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>7.7775646132577902</v>
+        <v>7.7401891134321499</v>
       </c>
       <c r="B1">
-        <v>14.179784863215493</v>
+        <v>14.179362523397408</v>
       </c>
       <c r="C1">
-        <v>10.071647558946562</v>
+        <v>9.9946245731242218</v>
       </c>
       <c r="D1">
-        <v>8.1884288608817766</v>
+        <v>8.4670347294957153</v>
       </c>
       <c r="E1">
-        <v>9.0168406215687096</v>
+        <v>9.3601778962108284</v>
       </c>
       <c r="F1">
-        <v>11.25899129910486</v>
+        <v>11.289672466087744</v>
       </c>
       <c r="G1">
-        <v>11.136645333764683</v>
+        <v>11.369937323748282</v>
       </c>
       <c r="H1">
-        <v>9.4370136286160644</v>
+        <v>9.1806394900654489</v>
       </c>
       <c r="I1">
-        <v>8.1778714283518408</v>
+        <v>7.9020401676817524</v>
       </c>
       <c r="J1">
-        <v>6.4539138403366128</v>
+        <v>6.4189135571401863</v>
       </c>
       <c r="K1">
-        <v>8.4521014217216344</v>
+        <v>8.5055430537382541</v>
       </c>
       <c r="L1">
-        <v>12.409165963954564</v>
+        <v>12.217740993861328</v>
       </c>
       <c r="M1">
-        <v>10.20758337263565</v>
+        <v>10.051947432215735</v>
       </c>
       <c r="N1">
-        <v>10.734939073305496</v>
+        <v>10.704627779243776</v>
       </c>
       <c r="O1">
-        <v>5.2596521551338205</v>
+        <v>5.3425107669548426</v>
       </c>
       <c r="P1">
-        <v>9.8925548466354947</v>
+        <v>9.948611763166177</v>
       </c>
       <c r="Q1">
-        <v>11.614873357875968</v>
+        <v>11.871713349537064</v>
       </c>
       <c r="R1">
-        <v>3.7696532785890122</v>
+        <v>3.9739428266119838</v>
       </c>
       <c r="S1">
-        <v>21.857281500223159</v>
+        <v>21.602435009943211</v>
       </c>
       <c r="T1">
-        <v>20.840977300607396</v>
+        <v>20.426371277529615</v>
       </c>
       <c r="U1">
-        <v>8.8531622097094917</v>
+        <v>8.8847459639537103</v>
       </c>
       <c r="V1">
-        <v>17.659677324472753</v>
+        <v>17.652152801524444</v>
       </c>
       <c r="W1">
-        <v>9.3037152708637052</v>
+        <v>9.4759670850075217</v>
       </c>
       <c r="X1">
-        <v>18.939265553200432</v>
+        <v>18.79645272562982</v>
       </c>
       <c r="Y1">
-        <v>4.6442596998611609</v>
+        <v>4.7287511224501255</v>
       </c>
       <c r="Z1">
-        <v>4.4278341722975965</v>
+        <v>4.5792408611508755</v>
       </c>
       <c r="AA1">
-        <v>13.539842872560786</v>
+        <v>13.24053521936894</v>
       </c>
       <c r="AB1">
-        <v>13.53278722222819</v>
+        <v>13.458857291319735</v>
       </c>
       <c r="AC1">
-        <v>6.4033510370033024</v>
+        <v>6.4829456402756547</v>
       </c>
       <c r="AD1">
-        <v>12.629871446070542</v>
+        <v>12.611196793645206</v>
       </c>
       <c r="AE1">
-        <v>6.2565010401091214</v>
+        <v>6.2688005622253513</v>
       </c>
       <c r="AF1">
-        <v>10.858076447260643</v>
+        <v>10.781184476185993</v>
       </c>
       <c r="AG1">
-        <v>14.015684088585004</v>
+        <v>14.061830483408583</v>
       </c>
       <c r="AH1">
-        <v>7.834366802587418</v>
+        <v>7.8813576956319809</v>
       </c>
       <c r="AI1">
-        <v>7.2979167495611517</v>
+        <v>7.1057293235416221</v>
       </c>
       <c r="AJ1">
-        <v>5.4470944181774064</v>
+        <v>5.2439628676011765</v>
       </c>
       <c r="AK1">
-        <v>5.4558982843946859</v>
+        <v>5.5390229206279145</v>
       </c>
       <c r="AL1">
-        <v>10.84304390951444</v>
+        <v>10.831103630475933</v>
       </c>
       <c r="AM1">
-        <v>12.868543885903566</v>
+        <v>12.474335180726998</v>
       </c>
       <c r="AN1">
-        <v>8.5721959669080778</v>
+        <v>8.769335100986094</v>
       </c>
       <c r="AO1">
-        <v>4.9105288412491994</v>
+        <v>5.2420361376278191</v>
       </c>
       <c r="AP1">
-        <v>11.621228048460935</v>
+        <v>11.713109107162044</v>
       </c>
       <c r="AQ1">
-        <v>15.271241592309835</v>
+        <v>15.71682448992371</v>
       </c>
       <c r="AR1">
-        <v>8.6598238871164916</v>
+        <v>8.4109004932112974</v>
       </c>
       <c r="AS1">
-        <v>19.334661363933741</v>
+        <v>19.384166658325064</v>
       </c>
       <c r="AT1">
-        <v>9.7970346260134455</v>
+        <v>9.6326234784802196</v>
       </c>
       <c r="AU1">
-        <v>10.638948020992274</v>
+        <v>10.370620618471854</v>
       </c>
       <c r="AV1">
-        <v>13.228827659677787</v>
+        <v>12.918253316003783</v>
       </c>
       <c r="AW1">
-        <v>8.7482667191648886</v>
+        <v>8.7118223214398753</v>
       </c>
       <c r="AX1">
-        <v>20.651605895221699</v>
+        <v>21.207325049955287</v>
       </c>
       <c r="AY1">
-        <v>9.9621595745708351</v>
+        <v>10.240785561020459</v>
       </c>
       <c r="AZ1">
-        <v>12.875478779939183</v>
+        <v>13.113328137674198</v>
       </c>
       <c r="BA1">
-        <v>3.242550089948554</v>
+        <v>3.2037504409145163</v>
       </c>
       <c r="BB1">
-        <v>20.148842405737646</v>
+        <v>20.073857354090091</v>
       </c>
       <c r="BC1">
-        <v>6.0630291284439233</v>
+        <v>6.1753718643760029</v>
       </c>
       <c r="BD1">
-        <v>11.255428890586181</v>
+        <v>11.330186264908582</v>
       </c>
       <c r="BE1">
-        <v>11.069728088200922</v>
+        <v>11.155714056987922</v>
       </c>
       <c r="BF1">
-        <v>12.502695462858878</v>
+        <v>12.737721964382354</v>
       </c>
       <c r="BG1">
-        <v>11.193527321189681</v>
+        <v>11.304372419775449</v>
       </c>
       <c r="BH1">
-        <v>13.18040324569683</v>
+        <v>13.067363320177837</v>
       </c>
       <c r="BI1">
-        <v>6.4054580172876685</v>
+        <v>6.3057812591257285</v>
       </c>
       <c r="BJ1">
-        <v>13.729210942181998</v>
+        <v>14.047302824598244</v>
       </c>
       <c r="BK1">
-        <v>12.606606702082747</v>
+        <v>12.624588348040145</v>
       </c>
       <c r="BL1">
-        <v>12.973145842578532</v>
+        <v>13.070628178332884</v>
       </c>
       <c r="BM1">
-        <v>7.1919338680851697</v>
+        <v>7.1744844652081827</v>
       </c>
       <c r="BN1">
-        <v>8.4572802532025655</v>
+        <v>8.2106000742209915</v>
       </c>
       <c r="BO1">
-        <v>3.8014856720526136</v>
+        <v>3.9039050907699613</v>
       </c>
       <c r="BP1">
-        <v>7.5103561488659505</v>
+        <v>7.5822340779466844</v>
       </c>
       <c r="BQ1">
-        <v>9.8785909414194677</v>
+        <v>9.5882569636504229</v>
       </c>
       <c r="BR1">
-        <v>4.9948339056749766</v>
+        <v>5.0571221939191409</v>
       </c>
       <c r="BS1">
-        <v>11.672825530012952</v>
+        <v>11.739084793354198</v>
       </c>
       <c r="BT1">
-        <v>11.359179916433691</v>
+        <v>11.121790744834053</v>
       </c>
       <c r="BU1">
-        <v>13.336283185428462</v>
+        <v>13.438597032491321</v>
       </c>
       <c r="BV1">
-        <v>8.1619911003663326</v>
+        <v>7.9518581381510796</v>
       </c>
       <c r="BW1">
-        <v>8.5927577783622837</v>
+        <v>8.614966744520915</v>
       </c>
       <c r="BX1">
-        <v>17.976463086346087</v>
+        <v>18.125650168537675</v>
       </c>
       <c r="BY1">
-        <v>6.8980605966160242</v>
+        <v>6.8034042638279431</v>
       </c>
       <c r="BZ1">
-        <v>12.94007649834778</v>
+        <v>12.899300187725439</v>
       </c>
       <c r="CA1">
-        <v>6.1245543728993779</v>
+        <v>6.1539024044096724</v>
       </c>
       <c r="CB1">
-        <v>14.791913911288933</v>
+        <v>14.783956959891256</v>
       </c>
       <c r="CC1">
-        <v>10.770747647748024</v>
+        <v>10.655674180734033</v>
       </c>
       <c r="CD1">
-        <v>6.274549765458401</v>
+        <v>6.5530667854935665</v>
       </c>
       <c r="CE1">
-        <v>4.4134575681898465</v>
+        <v>4.3520250910342355</v>
       </c>
       <c r="CF1">
-        <v>15.626832793228925</v>
+        <v>15.359583038514341</v>
       </c>
       <c r="CG1">
-        <v>11.191052146177014</v>
+        <v>11.053561580335034</v>
       </c>
       <c r="CH1">
-        <v>13.333333041303076</v>
+        <v>13.092087124503131</v>
       </c>
       <c r="CI1">
-        <v>11.954926500701299</v>
+        <v>11.697869079083336</v>
       </c>
       <c r="CJ1">
-        <v>7.4629190442514055</v>
+        <v>7.5347940233007558</v>
       </c>
       <c r="CK1">
-        <v>26.742666430964061</v>
+        <v>26.9961369303578</v>
       </c>
       <c r="CL1">
-        <v>8.430465476496817</v>
+        <v>8.5287656254718609</v>
       </c>
       <c r="CM1">
-        <v>5.4360831916877759</v>
+        <v>5.2384842340248943</v>
       </c>
       <c r="CN1">
-        <v>10.860074256039653</v>
+        <v>11.024505987252155</v>
       </c>
       <c r="CO1">
-        <v>12.902533313994727</v>
+        <v>12.744395900614482</v>
       </c>
       <c r="CP1">
-        <v>9.2868647127362838</v>
+        <v>9.2700733891443612</v>
       </c>
       <c r="CQ1">
-        <v>7.4407888565348337</v>
+        <v>7.7699524096540049</v>
       </c>
       <c r="CR1">
-        <v>8.8747103463500618</v>
+        <v>8.7065632536502875</v>
       </c>
       <c r="CS1">
-        <v>7.4298528747008632</v>
+        <v>7.4981764259027983</v>
       </c>
       <c r="CT1">
-        <v>14.232089511131225</v>
+        <v>14.366880508361806</v>
       </c>
       <c r="CU1">
-        <v>9.8352852061423004</v>
+        <v>9.5180854400953745</v>
       </c>
       <c r="CV1">
-        <v>6.7873556134617345</v>
+        <v>6.6704302876514916</v>
       </c>
       <c r="CW1">
-        <v>9.7613257395361366</v>
+        <v>9.6979093601431927</v>
       </c>
       <c r="CX1">
-        <v>8.3617777818167909</v>
+        <v>8.1138783709883491</v>
       </c>
       <c r="CY1">
-        <v>8.2565510943226421</v>
+        <v>8.3290812029156793</v>
       </c>
       <c r="CZ1">
-        <v>6.1133560893317522</v>
+        <v>6.1541196610616398</v>
       </c>
       <c r="DA1">
-        <v>5.4517349436907994</v>
+        <v>5.6898586669817268</v>
       </c>
       <c r="DB1">
-        <v>11.336196493925794</v>
+        <v>11.66421938688249</v>
       </c>
       <c r="DC1">
-        <v>15.384908941919392</v>
+        <v>15.80026879753558</v>
       </c>
       <c r="DD1">
-        <v>10.403378304612529</v>
+        <v>10.338142478919307</v>
       </c>
       <c r="DE1">
-        <v>6.7449530086719829</v>
+        <v>6.6284409979970622</v>
       </c>
       <c r="DF1">
-        <v>11.421645134899686</v>
+        <v>11.264794086690426</v>
       </c>
       <c r="DG1">
-        <v>9.1801521830989703</v>
+        <v>9.0044881613553294</v>
       </c>
       <c r="DH1">
-        <v>5.2848787080765902</v>
+        <v>5.417812359075171</v>
       </c>
       <c r="DI1">
-        <v>13.953498148560211</v>
+        <v>14.260749346396516</v>
       </c>
       <c r="DJ1">
-        <v>7.885686022009903</v>
+        <v>7.7062526033199061</v>
       </c>
       <c r="DK1">
-        <v>7.1686250091967336</v>
+        <v>7.0359647098062901</v>
       </c>
       <c r="DL1">
-        <v>6.4540963611655933</v>
+        <v>6.4923675360891107</v>
       </c>
       <c r="DM1">
-        <v>3.4845996599294256</v>
+        <v>3.5422320856796179</v>
       </c>
       <c r="DN1">
-        <v>8.6664351079607123</v>
+        <v>8.9430679068836163</v>
       </c>
       <c r="DO1">
-        <v>10.441788447303177</v>
+        <v>10.160739429480588</v>
       </c>
       <c r="DP1">
-        <v>12.097532914027788</v>
+        <v>12.41534758259577</v>
       </c>
       <c r="DQ1">
-        <v>22.572152377495183</v>
+        <v>22.971302419480654</v>
       </c>
       <c r="DR1">
-        <v>8.2994300414727977</v>
+        <v>8.3317396071436924</v>
       </c>
       <c r="DS1">
-        <v>18.365131172203903</v>
+        <v>18.401219420244573</v>
       </c>
       <c r="DT1">
-        <v>15.827837770824916</v>
+        <v>15.543393927972099</v>
       </c>
       <c r="DU1">
-        <v>5.6376513705397997</v>
+        <v>5.5242988269212514</v>
       </c>
       <c r="DV1">
-        <v>8.7188277658904596</v>
+        <v>8.9240883966132536</v>
       </c>
       <c r="DW1">
-        <v>9.5857150643866671</v>
+        <v>9.471581751702562</v>
       </c>
       <c r="DX1">
-        <v>11.619820080303814</v>
+        <v>11.498435552563141</v>
       </c>
       <c r="DY1">
-        <v>3.7085058893070291</v>
+        <v>3.8510210682389747</v>
       </c>
       <c r="DZ1">
-        <v>7.1902692599976152</v>
+        <v>6.9194368832379762</v>
       </c>
       <c r="EA1">
-        <v>15.358896577068043</v>
+        <v>15.209794415079026</v>
       </c>
       <c r="EB1">
-        <v>18.294633743234165</v>
+        <v>17.771832841320879</v>
       </c>
       <c r="EC1">
-        <v>13.775164345765774</v>
+        <v>13.600044352338564</v>
       </c>
       <c r="ED1">
-        <v>7.5088319908034151</v>
+        <v>7.299283432164108</v>
       </c>
       <c r="EE1">
-        <v>11.999006363857328</v>
+        <v>12.032676147377369</v>
       </c>
       <c r="EF1">
-        <v>14.299878165341555</v>
+        <v>14.552963507057042</v>
       </c>
       <c r="EG1">
-        <v>22.290100288607928</v>
+        <v>21.743511755310564</v>
       </c>
       <c r="EH1">
-        <v>3.1016648424083173</v>
+        <v>3.0008831081824363</v>
       </c>
       <c r="EI1">
-        <v>8.8993481721830534</v>
+        <v>8.6184593852202589</v>
       </c>
       <c r="EJ1">
-        <v>11.342270773054739</v>
+        <v>11.223783583122859</v>
       </c>
       <c r="EK1">
-        <v>9.0656372499086757</v>
+        <v>8.8489233198786383</v>
       </c>
       <c r="EL1">
-        <v>16.45325007101426</v>
+        <v>16.060123577138334</v>
       </c>
       <c r="EM1">
-        <v>6.8006210860890262</v>
+        <v>7.0446069700329392</v>
       </c>
       <c r="EN1">
-        <v>17.827331472088105</v>
+        <v>18.53496635020371</v>
       </c>
       <c r="EO1">
-        <v>9.9973828763182038</v>
+        <v>10.085486952455806</v>
       </c>
       <c r="EP1">
-        <v>15.073480223274817</v>
+        <v>15.260253831137298</v>
       </c>
       <c r="EQ1">
-        <v>5.7391150879870398</v>
+        <v>5.6839922875102635</v>
       </c>
       <c r="ER1">
-        <v>14.203204276536578</v>
+        <v>14.110713515329239</v>
       </c>
       <c r="ES1">
-        <v>13.283015339989985</v>
+        <v>13.227047967220846</v>
       </c>
       <c r="ET1">
-        <v>10.793685576207928</v>
+        <v>10.748279432930108</v>
       </c>
       <c r="EU1">
-        <v>15.311837816341979</v>
+        <v>15.49975471637053</v>
       </c>
       <c r="EV1">
-        <v>9.5329972373802043</v>
+        <v>9.6720799375749351</v>
       </c>
       <c r="EW1">
-        <v>9.1720972298533141</v>
+        <v>9.1405805958751642</v>
       </c>
       <c r="EX1">
-        <v>2.9701651504892315</v>
+        <v>2.9076922967119367</v>
       </c>
       <c r="EY1">
-        <v>6.069392952947819</v>
+        <v>6.2149236584580043</v>
       </c>
       <c r="EZ1">
-        <v>11.197543829931078</v>
+        <v>11.098407442192133</v>
       </c>
       <c r="FA1">
-        <v>8.615171528611743</v>
+        <v>8.504180955677592</v>
       </c>
       <c r="FB1">
-        <v>11.118721534312748</v>
+        <v>10.983756806830636</v>
       </c>
       <c r="FC1">
-        <v>4.5150241517135719</v>
+        <v>4.5340146591897472</v>
       </c>
       <c r="FD1">
-        <v>10.355704503689072</v>
+        <v>10.493642420381475</v>
       </c>
       <c r="FE1">
-        <v>8.2838958714395083</v>
+        <v>8.2366059024232854</v>
       </c>
       <c r="FF1">
-        <v>19.407947315295132</v>
+        <v>19.734886731009986</v>
       </c>
       <c r="FG1">
-        <v>8.9290535551061403</v>
+        <v>9.4011336041537383</v>
       </c>
       <c r="FH1">
-        <v>4.3204886612013755</v>
+        <v>4.0716468586523336</v>
       </c>
       <c r="FI1">
-        <v>15.323617693190096</v>
+        <v>15.248444286901183</v>
       </c>
       <c r="FJ1">
-        <v>13.092299971483971</v>
+        <v>13.075683785235979</v>
       </c>
       <c r="FK1">
-        <v>2.769075103509361</v>
+        <v>2.8074268612613267</v>
       </c>
       <c r="FL1">
-        <v>9.6787199909872115</v>
+        <v>9.9735863060543224</v>
       </c>
       <c r="FM1">
-        <v>5.3002040489393147</v>
+        <v>5.1342986346829793</v>
       </c>
       <c r="FN1">
-        <v>3.7566057380164848</v>
+        <v>3.9091700881901441</v>
       </c>
       <c r="FO1">
-        <v>16.490363669268255</v>
+        <v>16.350613758209651</v>
       </c>
       <c r="FP1">
-        <v>9.7891010525849609</v>
+        <v>9.7946143679567683</v>
       </c>
       <c r="FQ1">
-        <v>4.6651032592077506</v>
+        <v>4.6047414868626753</v>
       </c>
       <c r="FR1">
-        <v>16.314508940837289</v>
+        <v>16.112427578306729</v>
       </c>
       <c r="FS1">
-        <v>13.389798887564039</v>
+        <v>13.517529745295196</v>
       </c>
       <c r="FT1">
-        <v>12.993703425525013</v>
+        <v>13.161641318280083</v>
       </c>
       <c r="FU1">
-        <v>10.133906559243862</v>
+        <v>10.359670481765463</v>
       </c>
       <c r="FV1">
-        <v>9.499196747173972</v>
+        <v>9.2042475466710911</v>
       </c>
       <c r="FW1">
-        <v>16.316344366144413</v>
+        <v>16.179641653974805</v>
       </c>
       <c r="FX1">
-        <v>15.843913084269868</v>
+        <v>15.83073483626578</v>
       </c>
       <c r="FY1">
-        <v>8.75467553165673</v>
+        <v>9.0640059810507623</v>
       </c>
       <c r="FZ1">
-        <v>7.6306079534362956</v>
+        <v>7.8845936431863279</v>
       </c>
       <c r="GA1">
-        <v>26.410858511968868</v>
+        <v>26.386500122673105</v>
       </c>
       <c r="GB1">
-        <v>10.368608855945149</v>
+        <v>10.440853042683607</v>
       </c>
       <c r="GC1">
-        <v>7.2074751223717062</v>
+        <v>7.1846239987477469</v>
       </c>
       <c r="GD1">
-        <v>5.923083129973957</v>
+        <v>5.9400323468449638</v>
       </c>
       <c r="GE1">
-        <v>8.5718472497673446</v>
+        <v>8.5278455210612876</v>
       </c>
       <c r="GF1">
-        <v>6.7092614356166544</v>
+        <v>6.9293644671715002</v>
       </c>
       <c r="GG1">
-        <v>9.6784150968170124</v>
+        <v>9.3881861050307869</v>
       </c>
       <c r="GH1">
-        <v>12.89575393272526</v>
+        <v>12.598282190829284</v>
       </c>
       <c r="GI1">
-        <v>5.9593422591497713</v>
+        <v>5.8316179161059258</v>
       </c>
       <c r="GJ1">
-        <v>4.6914126517511558</v>
+        <v>4.8340780364288864</v>
       </c>
       <c r="GK1">
-        <v>7.9898835756971849</v>
+        <v>7.9915697985931988</v>
       </c>
       <c r="GL1">
-        <v>6.0160287922874573</v>
+        <v>5.936642982020139</v>
       </c>
       <c r="GM1">
-        <v>6.343035246023403</v>
+        <v>6.3134840054768233</v>
       </c>
       <c r="GN1">
-        <v>3.974049906548303</v>
+        <v>4.0180507225404964</v>
       </c>
       <c r="GO1">
-        <v>9.3371513387090772</v>
+        <v>9.270337059474743</v>
       </c>
       <c r="GP1">
-        <v>15.423558347512902</v>
+        <v>15.682804162835939</v>
       </c>
       <c r="GQ1">
-        <v>7.0099198155715712</v>
+        <v>7.0674887601876293</v>
       </c>
       <c r="GR1">
-        <v>5.8709725718723647</v>
+        <v>5.7294033217786131</v>
       </c>
       <c r="GS1">
-        <v>7.537065220227638</v>
+        <v>7.8995757780149845</v>
       </c>
       <c r="GT1">
-        <v>17.359827542079522</v>
+        <v>17.566875175825423</v>
       </c>
       <c r="GU1">
-        <v>15.949586790562144</v>
+        <v>16.315766883404343</v>
       </c>
       <c r="GV1">
-        <v>8.5004495748897195</v>
+        <v>8.3497552460339772</v>
       </c>
       <c r="GW1">
-        <v>6.493315516199285</v>
+        <v>6.2000955772115969</v>
       </c>
       <c r="GX1">
-        <v>4.0780257983017609</v>
+        <v>4.1140856842418234</v>
       </c>
       <c r="GY1">
-        <v>9.8268379892133453</v>
+        <v>9.6196977453028314</v>
       </c>
       <c r="GZ1">
-        <v>13.221617025296432</v>
+        <v>13.143728525568875</v>
       </c>
       <c r="HA1">
-        <v>10.276257564237712</v>
+        <v>10.315506422213147</v>
       </c>
       <c r="HB1">
-        <v>5.5323439708565694</v>
+        <v>5.6270872228042021</v>
       </c>
       <c r="HC1">
-        <v>15.231724187462262</v>
+        <v>15.551271648299643</v>
       </c>
       <c r="HD1">
-        <v>14.501899926805365</v>
+        <v>14.810873332325674</v>
       </c>
       <c r="HE1">
-        <v>10.876089268351141</v>
+        <v>10.972632983059002</v>
       </c>
       <c r="HF1">
-        <v>6.2619372802442026</v>
+        <v>6.4503569030487551</v>
       </c>
       <c r="HG1">
-        <v>11.074563636937242</v>
+        <v>10.972016838196138</v>
       </c>
       <c r="HH1">
-        <v>10.889888620325218</v>
+        <v>11.095857897755252</v>
       </c>
       <c r="HI1">
-        <v>7.805256458955891</v>
+        <v>7.841282487882915</v>
       </c>
       <c r="HJ1">
-        <v>9.5096837033674078</v>
+        <v>9.900474276244779</v>
       </c>
       <c r="HK1">
-        <v>6.2219052786458136</v>
+        <v>6.2009053293451455</v>
       </c>
       <c r="HL1">
-        <v>8.4636129422726132</v>
+        <v>8.3702922359792744</v>
       </c>
       <c r="HM1">
-        <v>12.772036875430986</v>
+        <v>12.732961144525586</v>
       </c>
       <c r="HN1">
-        <v>9.3887216610054711</v>
+        <v>9.5698862452962175</v>
       </c>
       <c r="HO1">
-        <v>19.562279392101161</v>
+        <v>19.383989275360719</v>
       </c>
       <c r="HP1">
-        <v>11.600164512982232</v>
+        <v>11.866906817030102</v>
       </c>
       <c r="HQ1">
-        <v>13.997944279724262</v>
+        <v>13.86990464114084</v>
       </c>
       <c r="HR1">
-        <v>7.7248272591010387</v>
+        <v>7.43577833798334</v>
       </c>
       <c r="HS1">
-        <v>8.9654995058363163</v>
+        <v>8.9417896431669632</v>
       </c>
       <c r="HT1">
-        <v>11.010207809251376</v>
+        <v>10.99076636083033</v>
       </c>
       <c r="HU1">
-        <v>13.664874550794819</v>
+        <v>13.683010220975779</v>
       </c>
       <c r="HV1">
-        <v>7.5774485042179265</v>
+        <v>7.8232726071819076</v>
       </c>
       <c r="HW1">
-        <v>11.518976058683673</v>
+        <v>11.322789689062422</v>
       </c>
       <c r="HX1">
-        <v>6.1034083236756116</v>
+        <v>6.4596690305482403</v>
       </c>
       <c r="HY1">
-        <v>14.681945765151594</v>
+        <v>14.57166220210658</v>
       </c>
       <c r="HZ1">
-        <v>7.067110422720793</v>
+        <v>7.0472249828016684</v>
       </c>
       <c r="IA1">
-        <v>5.8919314912871412</v>
+        <v>5.7826176312169313</v>
       </c>
       <c r="IB1">
-        <v>5.3504784880202774</v>
+        <v>5.4808561798249738</v>
       </c>
       <c r="IC1">
-        <v>10.869907273863651</v>
+        <v>10.747295264151514</v>
       </c>
       <c r="ID1">
-        <v>7.4090495218166996</v>
+        <v>7.4082856465825371</v>
       </c>
       <c r="IE1">
-        <v>8.6387361170024946</v>
+        <v>8.448224647241771</v>
       </c>
       <c r="IF1">
-        <v>6.6621155648888344</v>
+        <v>6.4938999586456667</v>
       </c>
       <c r="IG1">
-        <v>3.0757058609713166</v>
+        <v>3.0924444349914983</v>
       </c>
       <c r="IH1">
-        <v>4.8192035776735906</v>
+        <v>4.8556510578801255</v>
       </c>
       <c r="II1">
-        <v>8.59258059767145</v>
+        <v>9.0293690591300422</v>
       </c>
       <c r="IJ1">
-        <v>2.6542921335392657</v>
+        <v>2.6978593728548765</v>
       </c>
       <c r="IK1">
-        <v>10.51973319925286</v>
+        <v>10.374100226058605</v>
       </c>
       <c r="IL1">
-        <v>11.984599696288994</v>
+        <v>12.244849286772773</v>
       </c>
       <c r="IM1">
-        <v>14.394139147700036</v>
+        <v>14.631516308845615</v>
       </c>
       <c r="IN1">
-        <v>8.7108337330128442</v>
+        <v>8.8788098952780778</v>
       </c>
       <c r="IO1">
-        <v>18.431952181601126</v>
+        <v>18.569545159153783</v>
       </c>
       <c r="IP1">
-        <v>17.873996349299361</v>
+        <v>17.951127130047766</v>
       </c>
       <c r="IQ1">
-        <v>13.299122275041679</v>
+        <v>13.436013870023825</v>
       </c>
       <c r="IR1">
-        <v>7.3805206107048242</v>
+        <v>7.5086623825271506</v>
       </c>
       <c r="IS1">
-        <v>9.8707783087578118</v>
+        <v>9.8480138219734137</v>
       </c>
       <c r="IT1">
-        <v>13.862389473660953</v>
+        <v>13.663186518094733</v>
       </c>
       <c r="IU1">
-        <v>13.555337330086207</v>
+        <v>13.3300620023862</v>
       </c>
       <c r="IV1">
-        <v>14.068367532551491</v>
+        <v>14.54287395813375</v>
       </c>
       <c r="IW1">
-        <v>8.920133893559747</v>
+        <v>8.7738299283222503</v>
       </c>
       <c r="IX1">
-        <v>9.830907613480754</v>
+        <v>9.6550198579392728</v>
       </c>
       <c r="IY1">
-        <v>10.193522165420719</v>
+        <v>10.518661194036845</v>
       </c>
       <c r="IZ1">
-        <v>8.2065809483119985</v>
+        <v>8.2491314082956446</v>
       </c>
       <c r="JA1">
-        <v>11.960094831135613</v>
+        <v>11.643955060457088</v>
       </c>
       <c r="JB1">
-        <v>12.086705007148856</v>
+        <v>11.679547234074558</v>
       </c>
       <c r="JC1">
-        <v>8.4032359899979099</v>
+        <v>8.3046093008325244</v>
       </c>
       <c r="JD1">
-        <v>9.1165900532487854</v>
+        <v>8.8823485279713434</v>
       </c>
       <c r="JE1">
-        <v>9.8137466589448756</v>
+        <v>9.6799314944507753</v>
       </c>
       <c r="JF1">
-        <v>9.3821237734960405</v>
+        <v>9.3366298905587879</v>
       </c>
       <c r="JG1">
-        <v>4.6309253321132076</v>
+        <v>4.6501149188613553</v>
       </c>
       <c r="JH1">
-        <v>15.095529259656329</v>
+        <v>15.193241735497804</v>
       </c>
       <c r="JI1">
-        <v>5.9689199152794394</v>
+        <v>6.0693200373261913</v>
       </c>
       <c r="JJ1">
-        <v>3.3249378181115139</v>
+        <v>3.4014177006350659</v>
       </c>
       <c r="JK1">
-        <v>12.428167786445879</v>
+        <v>12.438996498215628</v>
       </c>
       <c r="JL1">
-        <v>12.722705044952278</v>
+        <v>12.308817385473693</v>
       </c>
       <c r="JM1">
-        <v>14.204785669637001</v>
+        <v>13.93192868299057</v>
       </c>
       <c r="JN1">
-        <v>21.19406889089306</v>
+        <v>21.514636843478151</v>
       </c>
       <c r="JO1">
-        <v>7.4899713139383692</v>
+        <v>7.2710214983795076</v>
       </c>
       <c r="JP1">
-        <v>6.4153020821626097</v>
+        <v>6.4424167718135372</v>
       </c>
       <c r="JQ1">
-        <v>2.9905069157151551</v>
+        <v>2.9795877266399708</v>
       </c>
       <c r="JR1">
-        <v>7.6038313884979036</v>
+        <v>7.634286234840534</v>
       </c>
       <c r="JS1">
-        <v>5.4813657752609775</v>
+        <v>5.510482853050318</v>
       </c>
       <c r="JT1">
-        <v>12.509768198182726</v>
+        <v>12.475990527634544</v>
       </c>
       <c r="JU1">
-        <v>15.1048564873338</v>
+        <v>15.09205247779555</v>
       </c>
       <c r="JV1">
-        <v>17.800768644538355</v>
+        <v>17.836880222561206</v>
       </c>
       <c r="JW1">
-        <v>7.8735874926121889</v>
+        <v>7.6779800519513435</v>
       </c>
       <c r="JX1">
-        <v>5.9286544776911976</v>
+        <v>5.8919873396926619</v>
       </c>
       <c r="JY1">
-        <v>10.12042383445371</v>
+        <v>10.081944223291458</v>
       </c>
       <c r="JZ1">
-        <v>9.7991792910789428</v>
+        <v>10.059822517122496</v>
       </c>
       <c r="KA1">
-        <v>10.59809531538777</v>
+        <v>10.652375237020474</v>
       </c>
       <c r="KB1">
-        <v>24.348419953657828</v>
+        <v>24.686792294372104</v>
       </c>
       <c r="KC1">
-        <v>10.273709908504848</v>
+        <v>10.279415886105152</v>
       </c>
       <c r="KD1">
-        <v>6.8701426406490578</v>
+        <v>6.7638289235109754</v>
       </c>
       <c r="KE1">
-        <v>5.9032288773760433</v>
+        <v>5.8637678845433134</v>
       </c>
       <c r="KF1">
-        <v>12.535172958996251</v>
+        <v>12.396475020719793</v>
       </c>
       <c r="KG1">
-        <v>5.6858547537476953</v>
+        <v>5.6212733954327296</v>
       </c>
       <c r="KH1">
-        <v>6.0166594481936277</v>
+        <v>6.0238217761047972</v>
       </c>
       <c r="KI1">
-        <v>10.874089616120855</v>
+        <v>11.145583802885522</v>
       </c>
       <c r="KJ1">
-        <v>5.5246016368325552</v>
+        <v>5.3643919695805193</v>
       </c>
       <c r="KK1">
-        <v>8.5431311338886857</v>
+        <v>8.5303216302282507</v>
       </c>
       <c r="KL1">
-        <v>13.240510493969628</v>
+        <v>13.199100288074707</v>
       </c>
       <c r="KM1">
-        <v>5.2188676847574698</v>
+        <v>5.1395676882739298</v>
       </c>
       <c r="KN1">
-        <v>10.753523175940892</v>
+        <v>10.8854273434292</v>
       </c>
       <c r="KO1">
-        <v>11.007165357863586</v>
+        <v>10.621750855271205</v>
       </c>
       <c r="KP1">
-        <v>6.3654202527131369</v>
+        <v>6.2701442195866415</v>
       </c>
       <c r="KQ1">
-        <v>15.925880221178382</v>
+        <v>15.657380709439659</v>
       </c>
       <c r="KR1">
-        <v>8.2136249327659456</v>
+        <v>8.0382152884296687</v>
       </c>
       <c r="KS1">
-        <v>10.777729297393099</v>
+        <v>10.906708284491033</v>
       </c>
       <c r="KT1">
-        <v>3.8726509614848017</v>
+        <v>4.0687198335467398</v>
       </c>
       <c r="KU1">
-        <v>5.3207869040357929</v>
+        <v>5.1954611259454353</v>
       </c>
       <c r="KV1">
-        <v>24.383380163760108</v>
+        <v>24.298654047146407</v>
       </c>
       <c r="KW1">
-        <v>14.191803714934849</v>
+        <v>13.779617739710027</v>
       </c>
       <c r="KX1">
-        <v>10.438330578243349</v>
+        <v>10.45311231650413</v>
       </c>
       <c r="KY1">
-        <v>4.4591465212787318</v>
+        <v>4.3376665657658151</v>
       </c>
       <c r="KZ1">
-        <v>19.026996368885275</v>
+        <v>18.807161677104382</v>
       </c>
       <c r="LA1">
-        <v>19.439080038552692</v>
+        <v>19.165204011040778</v>
       </c>
       <c r="LB1">
-        <v>16.717204051037921</v>
+        <v>16.84738136730806</v>
       </c>
       <c r="LC1">
-        <v>6.2851852628246334</v>
+        <v>6.3058574993911307</v>
       </c>
       <c r="LD1">
-        <v>18.550440531955594</v>
+        <v>18.499079328103761</v>
       </c>
       <c r="LE1">
-        <v>13.123322533958063</v>
+        <v>13.305437088617291</v>
       </c>
       <c r="LF1">
-        <v>10.301251753288005</v>
+        <v>10.377171281086344</v>
       </c>
       <c r="LG1">
-        <v>8.6668862231402084</v>
+        <v>9.1068915226752907</v>
       </c>
       <c r="LH1">
-        <v>14.106530771142051</v>
+        <v>13.743932768871435</v>
       </c>
       <c r="LI1">
-        <v>9.4632537755374297</v>
+        <v>9.7508285601904277</v>
       </c>
       <c r="LJ1">
-        <v>11.330203099846916</v>
+        <v>11.672304413463687</v>
       </c>
       <c r="LK1">
-        <v>12.600389869733439</v>
+        <v>12.640014834936133</v>
       </c>
       <c r="LL1">
-        <v>8.8717424008897723</v>
+        <v>9.2040771574170481</v>
       </c>
       <c r="LM1">
-        <v>7.2986230935218988</v>
+        <v>7.3167044685911167</v>
       </c>
       <c r="LN1">
-        <v>16.56406461007218</v>
+        <v>16.43396677299955</v>
       </c>
       <c r="LO1">
-        <v>14.614079006273199</v>
+        <v>15.122878123119047</v>
       </c>
       <c r="LP1">
-        <v>11.238638786395413</v>
+        <v>11.58104168508055</v>
       </c>
       <c r="LQ1">
-        <v>11.4365083326764</v>
+        <v>11.268774376276514</v>
       </c>
       <c r="LR1">
-        <v>4.9725479123460801</v>
+        <v>4.9771054302316777</v>
       </c>
       <c r="LS1">
-        <v>11.000168258051382</v>
+        <v>10.783856853599831</v>
       </c>
       <c r="LT1">
-        <v>17.85059108760073</v>
+        <v>17.999228035412656</v>
       </c>
       <c r="LU1">
-        <v>13.506558199442377</v>
+        <v>13.255187611812914</v>
       </c>
       <c r="LV1">
-        <v>8.9515239618108922</v>
+        <v>9.1167999713555812</v>
       </c>
       <c r="LW1">
-        <v>12.396192409438335</v>
+        <v>12.167952126299273</v>
       </c>
       <c r="LX1">
-        <v>7.332364473616038</v>
+        <v>7.4017154746459113</v>
       </c>
       <c r="LY1">
-        <v>10.324499184289145</v>
+        <v>10.271392293291484</v>
       </c>
       <c r="LZ1">
-        <v>9.8315266028831942</v>
+        <v>10.039183781622929</v>
       </c>
       <c r="MA1">
-        <v>20.660191613078911</v>
+        <v>20.954579272716579</v>
       </c>
       <c r="MB1">
-        <v>14.9989171451213</v>
+        <v>14.755492980737872</v>
       </c>
       <c r="MC1">
-        <v>7.9865251078910795</v>
+        <v>8.1310041963237421</v>
       </c>
       <c r="MD1">
-        <v>6.6927269427788723</v>
+        <v>6.7552658706988238</v>
       </c>
       <c r="ME1">
-        <v>5.8751045106449986</v>
+        <v>5.7929773281613057</v>
       </c>
       <c r="MF1">
-        <v>16.559894109885768</v>
+        <v>16.497681980714848</v>
       </c>
       <c r="MG1">
-        <v>6.6186425284482073</v>
+        <v>6.7228531991463756</v>
       </c>
       <c r="MH1">
-        <v>7.1481774499315947</v>
+        <v>7.083478955292362</v>
       </c>
       <c r="MI1">
-        <v>12.978645191861288</v>
+        <v>12.905932964362698</v>
       </c>
       <c r="MJ1">
-        <v>11.477603791088958</v>
+        <v>11.280748658894955</v>
       </c>
       <c r="MK1">
-        <v>6.1074052150098854</v>
+        <v>5.957673883281501</v>
       </c>
       <c r="ML1">
-        <v>6.399600010833022</v>
+        <v>6.4448701467660854</v>
       </c>
       <c r="MM1">
-        <v>11.247594619131595</v>
+        <v>11.471481493859752</v>
       </c>
       <c r="MN1">
-        <v>6.0735299526809365</v>
+        <v>6.2362130055048848</v>
       </c>
       <c r="MO1">
-        <v>1.0757012066126135</v>
+        <v>1.1373236900700183</v>
       </c>
       <c r="MP1">
-        <v>14.920456685739101</v>
+        <v>14.99508149128846</v>
       </c>
       <c r="MQ1">
-        <v>4.2642818871497585</v>
+        <v>4.1942478970660302</v>
       </c>
       <c r="MR1">
-        <v>22.313732063184212</v>
+        <v>22.492919807974118</v>
       </c>
       <c r="MS1">
-        <v>9.0519780569850212</v>
+        <v>9.2630704137324233</v>
       </c>
       <c r="MT1">
-        <v>9.8349653556662773</v>
+        <v>9.7089791100057212</v>
       </c>
       <c r="MU1">
-        <v>11.256977258302072</v>
+        <v>11.292576352054031</v>
       </c>
       <c r="MV1">
-        <v>13.513667860110218</v>
+        <v>13.307099148916835</v>
       </c>
       <c r="MW1">
-        <v>9.0254825797921754</v>
+        <v>8.9098608379586786</v>
       </c>
       <c r="MX1">
-        <v>5.4015066148807298</v>
+        <v>5.405932832329059</v>
       </c>
       <c r="MY1">
-        <v>7.6253504262314244</v>
+        <v>7.3739913136557567</v>
       </c>
       <c r="MZ1">
-        <v>3.916645728173842</v>
+        <v>3.8714066548277448</v>
       </c>
       <c r="NA1">
-        <v>11.958821151646596</v>
+        <v>12.233159202398625</v>
       </c>
       <c r="NB1">
-        <v>10.709090747846606</v>
+        <v>10.798941246120918</v>
       </c>
       <c r="NC1">
-        <v>10.798547143563928</v>
+        <v>10.517044856212486</v>
       </c>
       <c r="ND1">
-        <v>9.7939420319288129</v>
+        <v>9.7950166588809182</v>
       </c>
       <c r="NE1">
-        <v>8.6790856127430889</v>
+        <v>8.8026395626252558</v>
       </c>
       <c r="NF1">
-        <v>11.604305975110673</v>
+        <v>11.679191443400846</v>
       </c>
       <c r="NG1">
-        <v>12.408882867527048</v>
+        <v>12.384319212530539</v>
       </c>
       <c r="NH1">
-        <v>4.091648264041563</v>
+        <v>4.130000455540431</v>
       </c>
       <c r="NI1">
-        <v>5.6096905505419024</v>
+        <v>5.7079669549139416</v>
       </c>
       <c r="NJ1">
-        <v>7.376035058929137</v>
+        <v>7.3371285517893758</v>
       </c>
       <c r="NK1">
-        <v>2.7336715813403885</v>
+        <v>2.6721525719503809</v>
       </c>
       <c r="NL1">
-        <v>9.9568965952196091</v>
+        <v>9.676193256194157</v>
       </c>
       <c r="NM1">
-        <v>5.1299319667299503</v>
+        <v>4.9740363584316514</v>
       </c>
       <c r="NN1">
-        <v>9.6327040100649608</v>
+        <v>9.3338750225738156</v>
       </c>
       <c r="NO1">
-        <v>8.9650809583190743</v>
+        <v>9.0031594361596934</v>
       </c>
       <c r="NP1">
-        <v>4.8897318202682074</v>
+        <v>5.0105789831927376</v>
       </c>
       <c r="NQ1">
-        <v>4.7656461409387418</v>
+        <v>4.7465532240771307</v>
       </c>
       <c r="NR1">
-        <v>8.0373962611143384</v>
+        <v>8.2323044886163004</v>
       </c>
       <c r="NS1">
-        <v>11.950039764945689</v>
+        <v>11.965022111781105</v>
       </c>
       <c r="NT1">
-        <v>5.5168548362803378</v>
+        <v>5.4122677854816992</v>
       </c>
       <c r="NU1">
-        <v>8.6984964033420766</v>
+        <v>8.7158614160243371</v>
       </c>
       <c r="NV1">
-        <v>5.2742712695121847</v>
+        <v>5.4168388636916553</v>
       </c>
       <c r="NW1">
-        <v>7.633396944904093</v>
+        <v>7.5560411570343806</v>
       </c>
       <c r="NX1">
-        <v>16.629495440665643</v>
+        <v>16.507826309398112</v>
       </c>
       <c r="NY1">
-        <v>7.2883028212505767</v>
+        <v>7.2528763323241439</v>
       </c>
       <c r="NZ1">
-        <v>7.4680960248697925</v>
+        <v>7.6704892648825451</v>
       </c>
       <c r="OA1">
-        <v>6.3511362712384418</v>
+        <v>6.238527113820731</v>
       </c>
       <c r="OB1">
-        <v>4.6765450672156916</v>
+        <v>4.908760372798282</v>
       </c>
       <c r="OC1">
-        <v>9.1103712968388209</v>
+        <v>9.3894194276035616</v>
       </c>
       <c r="OD1">
-        <v>9.4052599171176574</v>
+        <v>9.4977390055002076</v>
       </c>
       <c r="OE1">
-        <v>17.388971537323961</v>
+        <v>17.355219640929537</v>
       </c>
       <c r="OF1">
-        <v>15.830206801109606</v>
+        <v>15.403311743101945</v>
       </c>
       <c r="OG1">
-        <v>8.2713567833978487</v>
+        <v>8.0519386172429641</v>
       </c>
       <c r="OH1">
-        <v>20.431505041777463</v>
+        <v>20.685210201109914</v>
       </c>
       <c r="OI1">
-        <v>4.0479255693457317</v>
+        <v>4.1922305889742928</v>
       </c>
       <c r="OJ1">
-        <v>16.409777613493723</v>
+        <v>16.963617818187053</v>
       </c>
       <c r="OK1">
-        <v>7.9559387473625813</v>
+        <v>7.865511293803106</v>
       </c>
       <c r="OL1">
-        <v>16.411137460140861</v>
+        <v>16.129309600102982</v>
       </c>
       <c r="OM1">
-        <v>8.9987271221348113</v>
+        <v>9.1369481649374027</v>
       </c>
       <c r="ON1">
-        <v>6.3937422539458826</v>
+        <v>6.3651408567524825</v>
       </c>
       <c r="OO1">
-        <v>14.65062620422766</v>
+        <v>14.188272132464681</v>
       </c>
       <c r="OP1">
-        <v>8.5183419656778963</v>
+        <v>8.5811974598406557</v>
       </c>
       <c r="OQ1">
-        <v>5.3654830007045478</v>
+        <v>5.5210840740374767</v>
       </c>
       <c r="OR1">
-        <v>13.699956517130687</v>
+        <v>13.785145131927623</v>
       </c>
       <c r="OS1">
-        <v>3.5677755960310953</v>
+        <v>3.5751934998317321</v>
       </c>
       <c r="OT1">
-        <v>10.82183733907096</v>
+        <v>10.933805029802771</v>
       </c>
       <c r="OU1">
-        <v>7.2251885593517695</v>
+        <v>6.9920574250241234</v>
       </c>
       <c r="OV1">
-        <v>4.7510747552845736</v>
+        <v>4.6253177601307129</v>
       </c>
       <c r="OW1">
-        <v>10.225670352725924</v>
+        <v>10.238925482089186</v>
       </c>
       <c r="OX1">
-        <v>13.041790335061059</v>
+        <v>13.272696108864018</v>
       </c>
       <c r="OY1">
-        <v>9.7367493671896757</v>
+        <v>9.7366480962357151</v>
       </c>
       <c r="OZ1">
-        <v>14.425199992339692</v>
+        <v>14.328471992785349</v>
       </c>
       <c r="PA1">
-        <v>8.502290772176055</v>
+        <v>8.4237436858668673</v>
       </c>
       <c r="PB1">
-        <v>12.067112623086494</v>
+        <v>11.993845467195515</v>
       </c>
       <c r="PC1">
-        <v>8.1294207707763864</v>
+        <v>8.0673010513179086</v>
       </c>
       <c r="PD1">
-        <v>8.4521320195453598</v>
+        <v>8.5141420482854109</v>
       </c>
       <c r="PE1">
-        <v>8.2384661456556714</v>
+        <v>8.2995225057600592</v>
       </c>
       <c r="PF1">
-        <v>4.5648600352959257</v>
+        <v>4.5936356697406699</v>
       </c>
       <c r="PG1">
-        <v>12.551581578372105</v>
+        <v>12.89180171240112</v>
       </c>
       <c r="PH1">
-        <v>11.908600266262948</v>
+        <v>11.858354274534268</v>
       </c>
       <c r="PI1">
-        <v>7.7919374218161579</v>
+        <v>7.8315593718021734</v>
       </c>
       <c r="PJ1">
-        <v>13.400947484814635</v>
+        <v>13.662830973171186</v>
       </c>
       <c r="PK1">
-        <v>8.7323235792971108</v>
+        <v>8.6165576848635457</v>
       </c>
       <c r="PL1">
-        <v>7.0378931493660613</v>
+        <v>6.8805111887155386</v>
       </c>
       <c r="PM1">
-        <v>7.5147195162767622</v>
+        <v>7.8260507094769185</v>
       </c>
       <c r="PN1">
-        <v>7.6061596291497153</v>
+        <v>7.7713784984067482</v>
       </c>
       <c r="PO1">
-        <v>8.7743452977419416</v>
+        <v>8.7468377817035101</v>
       </c>
       <c r="PP1">
-        <v>4.6930697557191792</v>
+        <v>4.4669969202930089</v>
       </c>
       <c r="PQ1">
-        <v>11.780831231890803</v>
+        <v>11.842134097727641</v>
       </c>
       <c r="PR1">
-        <v>4.0287827607763402</v>
+        <v>3.8995533573893182</v>
       </c>
       <c r="PS1">
-        <v>15.844501315604159</v>
+        <v>15.83462780800653</v>
       </c>
       <c r="PT1">
-        <v>6.2957085347225039</v>
+        <v>6.3343247627729591</v>
       </c>
       <c r="PU1">
-        <v>6.2645955211245106</v>
+        <v>6.2128583766009804</v>
       </c>
       <c r="PV1">
-        <v>8.5603951297080592</v>
+        <v>8.4172619786196883</v>
       </c>
       <c r="PW1">
-        <v>11.783385681483466</v>
+        <v>11.487102362392559</v>
       </c>
       <c r="PX1">
-        <v>4.2697555166839249</v>
+        <v>4.1141628574459421</v>
       </c>
       <c r="PY1">
-        <v>16.25545683203503</v>
+        <v>16.152061546453496</v>
       </c>
       <c r="PZ1">
-        <v>6.4899160893071164</v>
+        <v>6.4380059396508322</v>
       </c>
       <c r="QA1">
-        <v>8.7275457089171713</v>
+        <v>8.8230909594309885</v>
       </c>
       <c r="QB1">
-        <v>15.619842309018159</v>
+        <v>15.844475192312593</v>
       </c>
       <c r="QC1">
-        <v>10.518847132802126</v>
+        <v>10.66056511186267</v>
       </c>
       <c r="QD1">
-        <v>9.1448864016854188</v>
+        <v>8.9658590522961408</v>
       </c>
       <c r="QE1">
-        <v>8.1576737074599794</v>
+        <v>8.102483315460006</v>
       </c>
       <c r="QF1">
-        <v>10.730163172110906</v>
+        <v>10.578656304454132</v>
       </c>
       <c r="QG1">
-        <v>8.3811941827672349</v>
+        <v>8.1674958747009843</v>
       </c>
       <c r="QH1">
-        <v>15.165849214108418</v>
+        <v>15.315207615704347</v>
       </c>
       <c r="QI1">
-        <v>8.8907677181618503</v>
+        <v>9.1800572446854858</v>
       </c>
       <c r="QJ1">
-        <v>10.48902149623183</v>
+        <v>10.671627385727341</v>
       </c>
       <c r="QK1">
-        <v>5.7903967103936544</v>
+        <v>5.8124306035123103</v>
       </c>
       <c r="QL1">
-        <v>3.4713356000607192</v>
+        <v>3.6103388031425983</v>
       </c>
       <c r="QM1">
-        <v>8.5017940493771498</v>
+        <v>8.6447371254726626</v>
       </c>
       <c r="QN1">
-        <v>13.834833451121739</v>
+        <v>13.46949508194918</v>
       </c>
       <c r="QO1">
-        <v>12.271713040909123</v>
+        <v>11.919197853159993</v>
       </c>
       <c r="QP1">
-        <v>13.097188144407617</v>
+        <v>13.381502541445107</v>
       </c>
       <c r="QQ1">
-        <v>9.6294339322788414</v>
+        <v>9.660998779887068</v>
       </c>
       <c r="QR1">
-        <v>12.612754258674427</v>
+        <v>12.595194142931884</v>
       </c>
       <c r="QS1">
-        <v>7.034708504921074</v>
+        <v>6.7945263171363051</v>
       </c>
       <c r="QT1">
-        <v>9.678103868586625</v>
+        <v>9.4968762157986912</v>
       </c>
       <c r="QU1">
-        <v>15.753303883561237</v>
+        <v>15.866507793469626</v>
       </c>
       <c r="QV1">
-        <v>12.048262963479553</v>
+        <v>12.356281029658934</v>
       </c>
       <c r="QW1">
-        <v>15.776366856526831</v>
+        <v>15.787213832986557</v>
       </c>
       <c r="QX1">
-        <v>6.0387091213675621</v>
+        <v>5.8801720709432832</v>
       </c>
       <c r="QY1">
-        <v>8.449230218604729</v>
+        <v>8.8371287430580416</v>
       </c>
       <c r="QZ1">
-        <v>13.73098718564292</v>
+        <v>14.014587567735681</v>
       </c>
       <c r="RA1">
-        <v>14.995897661472693</v>
+        <v>14.740084861104224</v>
       </c>
       <c r="RB1">
-        <v>14.751771073134922</v>
+        <v>14.799908901040318</v>
       </c>
       <c r="RC1">
-        <v>6.1263576434616684</v>
+        <v>6.1224662385012874</v>
       </c>
       <c r="RD1">
-        <v>9.8940883962493622</v>
+        <v>9.908340155498502</v>
       </c>
       <c r="RE1">
-        <v>18.415455085755728</v>
+        <v>18.840195081221779</v>
       </c>
       <c r="RF1">
-        <v>4.1573475299725926</v>
+        <v>4.2783257442418705</v>
       </c>
       <c r="RG1">
-        <v>9.503464152534427</v>
+        <v>9.7334447467480683</v>
       </c>
       <c r="RH1">
-        <v>9.5024497854032131</v>
+        <v>9.3631006831479002</v>
       </c>
       <c r="RI1">
-        <v>11.521600006406107</v>
+        <v>11.59796472453975</v>
       </c>
       <c r="RJ1">
-        <v>9.8991811567749508</v>
+        <v>10.091584346891889</v>
       </c>
       <c r="RK1">
-        <v>12.844534507251376</v>
+        <v>12.905380849178943</v>
       </c>
       <c r="RL1">
-        <v>18.213885272950751</v>
+        <v>18.289817507679746</v>
       </c>
       <c r="RM1">
-        <v>13.606203991010894</v>
+        <v>13.515813890029396</v>
       </c>
       <c r="RN1">
-        <v>9.2957250067814208</v>
+        <v>9.3306556091946558</v>
       </c>
       <c r="RO1">
-        <v>11.805527787254118</v>
+        <v>11.801481122994637</v>
       </c>
       <c r="RP1">
-        <v>9.5886931722085915</v>
+        <v>9.3544772306209367</v>
       </c>
       <c r="RQ1">
-        <v>8.026883581973733</v>
+        <v>8.0193199132755595</v>
       </c>
       <c r="RR1">
-        <v>18.57688761727983</v>
+        <v>18.773093826864859</v>
       </c>
       <c r="RS1">
-        <v>4.2757944201263429</v>
+        <v>4.239031593675791</v>
       </c>
       <c r="RT1">
-        <v>7.9905398753453634</v>
+        <v>7.7720779837998082</v>
       </c>
       <c r="RU1">
-        <v>9.7492587468780521</v>
+        <v>9.779155812574583</v>
       </c>
       <c r="RV1">
-        <v>12.927706565966904</v>
+        <v>12.827961632427604</v>
       </c>
       <c r="RW1">
-        <v>7.8983349300045056</v>
+        <v>7.7768303112287533</v>
       </c>
       <c r="RX1">
-        <v>10.683164937919251</v>
+        <v>10.339599475504979</v>
       </c>
       <c r="RY1">
-        <v>7.308480254771756</v>
+        <v>7.2695145340545473</v>
       </c>
       <c r="RZ1">
-        <v>11.860960609331489</v>
+        <v>11.956622325054035</v>
       </c>
       <c r="SA1">
-        <v>14.541196014850335</v>
+        <v>14.287626464421734</v>
       </c>
       <c r="SB1">
-        <v>4.7130064548012438</v>
+        <v>4.5967674944783807</v>
       </c>
       <c r="SC1">
-        <v>7.7540410031658116</v>
+        <v>7.7088465650955715</v>
       </c>
       <c r="SD1">
-        <v>12.225281184699856</v>
+        <v>12.785446023310378</v>
       </c>
       <c r="SE1">
-        <v>10.054665916004794</v>
+        <v>10.114020194573854</v>
       </c>
       <c r="SF1">
-        <v>4.9875590859910179</v>
+        <v>4.6804362146289211</v>
       </c>
       <c r="SG1">
-        <v>4.8509975056221188</v>
+        <v>4.991982691970974</v>
       </c>
       <c r="SH1">
-        <v>13.459680879066511</v>
+        <v>13.295526286065467</v>
       </c>
       <c r="SI1">
-        <v>3.9242962693705694</v>
+        <v>3.9799603586528134</v>
       </c>
       <c r="SJ1">
-        <v>7.6557092063504468</v>
+        <v>7.7579064336099055</v>
       </c>
       <c r="SK1">
-        <v>5.7194634348204945</v>
+        <v>5.5928145583466069</v>
       </c>
       <c r="SL1">
-        <v>7.7168796326011613</v>
+        <v>7.8025764905885735</v>
       </c>
       <c r="SM1">
-        <v>6.6620504519722026</v>
+        <v>6.6898878704039522</v>
       </c>
       <c r="SN1">
-        <v>10.76394423790398</v>
+        <v>10.518816111787629</v>
       </c>
       <c r="SO1">
-        <v>8.1432685437512777</v>
+        <v>7.9256138325207353</v>
       </c>
       <c r="SP1">
-        <v>14.273002622929106</v>
+        <v>14.251022519195864</v>
       </c>
       <c r="SQ1">
-        <v>8.9955557001945134</v>
+        <v>9.0250036460763052</v>
       </c>
       <c r="SR1">
-        <v>6.6077673219732649</v>
+        <v>6.7654839850649449</v>
       </c>
       <c r="SS1">
-        <v>11.631666336009292</v>
+        <v>12.039160047500594</v>
       </c>
       <c r="ST1">
-        <v>17.198425319385876</v>
+        <v>16.962103825959474</v>
       </c>
       <c r="SU1">
-        <v>13.196199862954053</v>
+        <v>13.109295745133217</v>
       </c>
       <c r="SV1">
-        <v>9.816931876250651</v>
+        <v>9.9478580143773545</v>
       </c>
       <c r="SW1">
-        <v>7.062736487475914</v>
+        <v>6.9624966134790913</v>
       </c>
       <c r="SX1">
-        <v>5.4547599842330996</v>
+        <v>5.5607167176519301</v>
       </c>
       <c r="SY1">
-        <v>6.3408960184053917</v>
+        <v>6.4389417452944055</v>
       </c>
       <c r="SZ1">
-        <v>9.6120481579669228</v>
+        <v>9.8532819204355029</v>
       </c>
       <c r="TA1">
-        <v>10.054630337122083</v>
+        <v>9.9779885045976542</v>
       </c>
       <c r="TB1">
-        <v>8.6329007291660371</v>
+        <v>8.589983932696402</v>
       </c>
       <c r="TC1">
-        <v>10.081988998530662</v>
+        <v>9.7148275340401504</v>
       </c>
       <c r="TD1">
-        <v>10.35352117759853</v>
+        <v>10.462965804815749</v>
       </c>
       <c r="TE1">
-        <v>8.2288842520483954</v>
+        <v>8.2946671399253411</v>
       </c>
       <c r="TF1">
-        <v>3.9928740530816391</v>
+        <v>3.9708524500836768</v>
       </c>
       <c r="TG1">
-        <v>5.4896408224409257</v>
+        <v>5.5492555927439229</v>
       </c>
       <c r="TH1">
-        <v>16.32312852879911</v>
+        <v>16.303644107348354</v>
       </c>
       <c r="TI1">
-        <v>6.3716738682078855</v>
+        <v>6.3577517748617254</v>
       </c>
       <c r="TJ1">
-        <v>6.102810584470447</v>
+        <v>6.1240281033371744</v>
       </c>
       <c r="TK1">
-        <v>5.8106997109336085</v>
+        <v>5.9883949247510033</v>
       </c>
       <c r="TL1">
-        <v>11.692605273732196</v>
+        <v>11.911327252101396</v>
       </c>
       <c r="TM1">
-        <v>15.561141440298396</v>
+        <v>15.754728403662687</v>
       </c>
       <c r="TN1">
-        <v>5.9081201221621553</v>
+        <v>5.6850280751774225</v>
       </c>
       <c r="TO1">
-        <v>8.2100689050325979</v>
+        <v>8.0592618792613546</v>
       </c>
       <c r="TP1">
-        <v>7.7954275382788296</v>
+        <v>7.7816625353622166</v>
       </c>
       <c r="TQ1">
-        <v>7.9083004528367233</v>
+        <v>8.0775580616131535</v>
       </c>
       <c r="TR1">
-        <v>14.120917273681689</v>
+        <v>13.919262288853746</v>
       </c>
       <c r="TS1">
-        <v>14.385728114246842</v>
+        <v>14.035974469157658</v>
       </c>
       <c r="TT1">
-        <v>4.6595380999469418</v>
+        <v>4.8061385567263581</v>
       </c>
       <c r="TU1">
-        <v>11.103841468038349</v>
+        <v>11.083577904548697</v>
       </c>
       <c r="TV1">
-        <v>15.756470225222152</v>
+        <v>15.323658164047249</v>
       </c>
       <c r="TW1">
-        <v>11.971405299915109</v>
+        <v>11.798765775519092</v>
       </c>
       <c r="TX1">
-        <v>15.084678575683224</v>
+        <v>15.018574095348532</v>
       </c>
       <c r="TY1">
-        <v>8.3763213591752717</v>
+        <v>8.2328311272057135</v>
       </c>
       <c r="TZ1">
-        <v>27.77296135166501</v>
+        <v>28.154081257498078</v>
       </c>
       <c r="UA1">
-        <v>8.6851979620670399</v>
+        <v>8.6487256624579043</v>
       </c>
       <c r="UB1">
-        <v>7.1281970875853506</v>
+        <v>7.3676355135294429</v>
       </c>
       <c r="UC1">
-        <v>9.7168371238151963</v>
+        <v>10.160474809924816</v>
       </c>
       <c r="UD1">
-        <v>8.6321168929181198</v>
+        <v>8.5619738798938538</v>
       </c>
       <c r="UE1">
-        <v>4.1440512556456</v>
+        <v>4.2028874275183812</v>
       </c>
       <c r="UF1">
-        <v>3.4923677304684588</v>
+        <v>3.3413704776364979</v>
       </c>
       <c r="UG1">
-        <v>7.2799420234766323</v>
+        <v>7.4830653201897697</v>
       </c>
       <c r="UH1">
-        <v>5.7197824697331008</v>
+        <v>5.7149475957790319</v>
       </c>
       <c r="UI1">
-        <v>8.5191613258225622</v>
+        <v>8.586592984815951</v>
       </c>
       <c r="UJ1">
-        <v>29.376308262638695</v>
+        <v>29.774749528230622</v>
       </c>
       <c r="UK1">
-        <v>9.5331195191076876</v>
+        <v>9.6694786820779939</v>
       </c>
       <c r="UL1">
-        <v>8.1118015196431958</v>
+        <v>7.9730717396314645</v>
       </c>
       <c r="UM1">
-        <v>9.7439849271103558</v>
+        <v>9.7234293103118574</v>
       </c>
       <c r="UN1">
-        <v>8.2457163751541316</v>
+        <v>7.8786415058268027</v>
       </c>
       <c r="UO1">
-        <v>9.2357033620326714</v>
+        <v>9.2311225625938977</v>
       </c>
       <c r="UP1">
-        <v>6.0840716803258239</v>
+        <v>6.1010580768458587</v>
       </c>
       <c r="UQ1">
-        <v>11.524597209924586</v>
+        <v>11.251418341885721</v>
       </c>
       <c r="UR1">
-        <v>3.9713765426652916</v>
+        <v>4.1245423481348382</v>
       </c>
       <c r="US1">
-        <v>19.26549795930368</v>
+        <v>19.746305049329287</v>
       </c>
       <c r="UT1">
-        <v>8.4866317796223534</v>
+        <v>8.8332437031575033</v>
       </c>
       <c r="UU1">
-        <v>6.8096512163571239</v>
+        <v>6.5266623879051799</v>
       </c>
       <c r="UV1">
-        <v>15.052153203997943</v>
+        <v>14.773602748850063</v>
       </c>
       <c r="UW1">
-        <v>2.8252966479394512</v>
+        <v>2.7324842264846945</v>
       </c>
       <c r="UX1">
-        <v>11.678442782985956</v>
+        <v>11.756127839300046</v>
       </c>
       <c r="UY1">
-        <v>11.148743836906926</v>
+        <v>11.057862627081221</v>
       </c>
       <c r="UZ1">
-        <v>8.0005311243363639</v>
+        <v>8.0669149280073853</v>
       </c>
       <c r="VA1">
-        <v>3.6844182822823788</v>
+        <v>3.6931729589887636</v>
       </c>
       <c r="VB1">
-        <v>4.2415934028369637</v>
+        <v>4.1110205253864045</v>
       </c>
       <c r="VC1">
-        <v>15.484046215294814</v>
+        <v>15.611315947814102</v>
       </c>
       <c r="VD1">
-        <v>5.7836786288023925</v>
+        <v>5.6923153218212796</v>
       </c>
       <c r="VE1">
-        <v>5.9885777906613011</v>
+        <v>5.9522394795368756</v>
       </c>
       <c r="VF1">
-        <v>4.5117035341198788</v>
+        <v>4.5453620224203135</v>
       </c>
       <c r="VG1">
-        <v>9.1231144644657167</v>
+        <v>9.0267820876078808</v>
       </c>
       <c r="VH1">
-        <v>5.0385652032156472</v>
+        <v>5.1132746553163049</v>
       </c>
       <c r="VI1">
-        <v>6.55804429503549</v>
+        <v>6.4700768234080961</v>
       </c>
       <c r="VJ1">
-        <v>20.551298884958236</v>
+        <v>20.669898318734326</v>
       </c>
       <c r="VK1">
-        <v>3.3609066015727396</v>
+        <v>3.1845712074953818</v>
       </c>
       <c r="VL1">
-        <v>2.1043628535924825</v>
+        <v>2.1380990615192315</v>
       </c>
       <c r="VM1">
-        <v>16.882666385328132</v>
+        <v>16.831150944246556</v>
       </c>
       <c r="VN1">
-        <v>5.4960036641722727</v>
+        <v>5.5075593157198846</v>
       </c>
       <c r="VO1">
-        <v>6.7264002073171421</v>
+        <v>6.7176049725129827</v>
       </c>
       <c r="VP1">
-        <v>9.2156582912997731</v>
+        <v>9.1529952007263731</v>
       </c>
       <c r="VQ1">
-        <v>10.840848335820453</v>
+        <v>10.983976987718483</v>
       </c>
       <c r="VR1">
-        <v>10.382306685376101</v>
+        <v>10.337505693343799</v>
       </c>
       <c r="VS1">
-        <v>4.9440137081511768</v>
+        <v>4.9600030820943095</v>
       </c>
       <c r="VT1">
-        <v>4.3702265936261178</v>
+        <v>4.4850772856011512</v>
       </c>
       <c r="VU1">
-        <v>7.8304337565574098</v>
+        <v>7.6579519527556217</v>
       </c>
       <c r="VV1">
-        <v>6.8259122795662881</v>
+        <v>6.8491224560244603</v>
       </c>
       <c r="VW1">
-        <v>18.514246534512989</v>
+        <v>18.065880095072345</v>
       </c>
       <c r="VX1">
-        <v>6.6883225883449509</v>
+        <v>6.8822918510898834</v>
       </c>
       <c r="VY1">
-        <v>9.3345644895422435</v>
+        <v>9.4603451123369631</v>
       </c>
       <c r="VZ1">
-        <v>8.6180713799048618</v>
+        <v>8.4795208248756211</v>
       </c>
       <c r="WA1">
-        <v>18.013505840344813</v>
+        <v>18.355606691159259</v>
       </c>
       <c r="WB1">
-        <v>4.6075556367350838</v>
+        <v>4.5706855141252127</v>
       </c>
       <c r="WC1">
-        <v>11.201526163677226</v>
+        <v>11.013208042650863</v>
       </c>
       <c r="WD1">
-        <v>9.6479383944522326</v>
+        <v>9.8992719041200044</v>
       </c>
       <c r="WE1">
-        <v>8.2742891014371232</v>
+        <v>8.454449435985989</v>
       </c>
       <c r="WF1">
-        <v>11.366311755038081</v>
+        <v>11.745770054865385</v>
       </c>
       <c r="WG1">
-        <v>15.313568175232835</v>
+        <v>15.061163880208728</v>
       </c>
       <c r="WH1">
-        <v>10.01516576339359</v>
+        <v>10.43670909623407</v>
       </c>
       <c r="WI1">
-        <v>5.6740216914881847</v>
+        <v>5.7177181925267906</v>
       </c>
       <c r="WJ1">
-        <v>11.038707885562697</v>
+        <v>11.124884470206425</v>
       </c>
       <c r="WK1">
-        <v>14.565051313188718</v>
+        <v>14.590166913597583</v>
       </c>
       <c r="WL1">
-        <v>8.5740321246838427</v>
+        <v>8.6860102348081512</v>
       </c>
       <c r="WM1">
-        <v>18.310259817073828</v>
+        <v>18.233240713878736</v>
       </c>
       <c r="WN1">
-        <v>8.8083874821056991</v>
+        <v>8.7688300777304722</v>
       </c>
       <c r="WO1">
-        <v>6.9827352692251257</v>
+        <v>6.6586482830488656</v>
       </c>
       <c r="WP1">
-        <v>14.322758098348242</v>
+        <v>14.160660341049741</v>
       </c>
       <c r="WQ1">
-        <v>26.520231509787056</v>
+        <v>26.931349091452994</v>
       </c>
       <c r="WR1">
-        <v>9.063124378815095</v>
+        <v>8.8669004130133704</v>
       </c>
       <c r="WS1">
-        <v>9.3647550701258897</v>
+        <v>9.1388895469646396</v>
       </c>
       <c r="WT1">
-        <v>9.9642348242513759</v>
+        <v>10.105320934898796</v>
       </c>
       <c r="WU1">
-        <v>10.802888290107351</v>
+        <v>10.682392435126371</v>
       </c>
       <c r="WV1">
-        <v>15.326779406554545</v>
+        <v>15.593852667134641</v>
       </c>
       <c r="WW1">
-        <v>19.274009031959295</v>
+        <v>19.030638679436947</v>
       </c>
       <c r="WX1">
-        <v>6.7069876982377696</v>
+        <v>6.6690238506557815</v>
       </c>
       <c r="WY1">
-        <v>10.916025549728619</v>
+        <v>10.770454199143423</v>
       </c>
       <c r="WZ1">
-        <v>7.2790193912264893</v>
+        <v>7.0965987450510024</v>
       </c>
       <c r="XA1">
-        <v>10.284390517238176</v>
+        <v>10.170745981643343</v>
       </c>
       <c r="XB1">
-        <v>12.207917186616262</v>
+        <v>12.109852870129515</v>
       </c>
       <c r="XC1">
-        <v>14.230675364491676</v>
+        <v>13.874461332442282</v>
       </c>
       <c r="XD1">
-        <v>3.6203836403806249</v>
+        <v>3.6142824713163169</v>
       </c>
       <c r="XE1">
-        <v>7.6247243362244266</v>
+        <v>7.6257031818113195</v>
       </c>
       <c r="XF1">
-        <v>12.01235329864544</v>
+        <v>12.391858446433698</v>
       </c>
       <c r="XG1">
-        <v>0.8900486017136553</v>
+        <v>0.85382897321762041</v>
       </c>
       <c r="XH1">
-        <v>8.1792810621378784</v>
+        <v>8.0173847262757292</v>
       </c>
       <c r="XI1">
-        <v>8.8744390868316607</v>
+        <v>8.5069510374328807</v>
       </c>
       <c r="XJ1">
-        <v>11.287417468254802</v>
+        <v>11.011699664182482</v>
       </c>
       <c r="XK1">
-        <v>2.7706830054212523</v>
+        <v>2.7727900681995687</v>
       </c>
       <c r="XL1">
-        <v>20.699185648124001</v>
+        <v>20.258770899221261</v>
       </c>
       <c r="XM1">
-        <v>7.5795215691549354</v>
+        <v>7.6102643083632486</v>
       </c>
       <c r="XN1">
-        <v>2.4674588354370655</v>
+        <v>2.4252223901844059</v>
       </c>
       <c r="XO1">
-        <v>8.5861944689778404</v>
+        <v>8.6826154627872683</v>
       </c>
       <c r="XP1">
-        <v>9.1419145725425341</v>
+        <v>8.984120884201074</v>
       </c>
       <c r="XQ1">
-        <v>9.6346336624579365</v>
+        <v>9.7445276459068708</v>
       </c>
       <c r="XR1">
-        <v>4.699544247930076</v>
+        <v>4.5440888521301765</v>
       </c>
       <c r="XS1">
-        <v>5.7224639026216053</v>
+        <v>5.7107557611861175</v>
       </c>
       <c r="XT1">
-        <v>4.4413204605784529</v>
+        <v>4.6125960585628167</v>
       </c>
       <c r="XU1">
-        <v>6.1006061848950752</v>
+        <v>6.3094015329703543</v>
       </c>
       <c r="XV1">
-        <v>9.0354827975982079</v>
+        <v>9.1714339091474191</v>
       </c>
       <c r="XW1">
-        <v>9.5502438317733773</v>
+        <v>9.6141488459448823</v>
       </c>
       <c r="XX1">
-        <v>8.0820207221319968</v>
+        <v>8.0378841759054893</v>
       </c>
       <c r="XY1">
-        <v>12.035825477799905</v>
+        <v>11.741200371185142</v>
       </c>
       <c r="XZ1">
-        <v>13.946007547354689</v>
+        <v>13.637030830477752</v>
       </c>
       <c r="YA1">
-        <v>10.183163349733601</v>
+        <v>10.11838746744073</v>
       </c>
       <c r="YB1">
-        <v>8.924917356388022</v>
+        <v>8.8455921735807976</v>
       </c>
       <c r="YC1">
-        <v>4.6740492867423233</v>
+        <v>4.9125793708339387</v>
       </c>
       <c r="YD1">
-        <v>7.0493792368240396</v>
+        <v>7.0762068442982669</v>
       </c>
       <c r="YE1">
-        <v>6.7228307978957886</v>
+        <v>6.7100821702531608</v>
       </c>
       <c r="YF1">
-        <v>13.254043051277286</v>
+        <v>13.414350066192</v>
       </c>
       <c r="YG1">
-        <v>7.2942521886823704</v>
+        <v>7.2964696877193216</v>
       </c>
       <c r="YH1">
-        <v>12.953773099898184</v>
+        <v>12.986273285514326</v>
       </c>
       <c r="YI1">
-        <v>13.99632270071919</v>
+        <v>14.018900684514509</v>
       </c>
       <c r="YJ1">
-        <v>16.890755166893715</v>
+        <v>16.976458418097213</v>
       </c>
       <c r="YK1">
-        <v>7.8283316687311864</v>
+        <v>7.5838590103706736</v>
       </c>
       <c r="YL1">
-        <v>12.328519231898127</v>
+        <v>12.628602047513425</v>
       </c>
       <c r="YM1">
-        <v>5.676479131242397</v>
+        <v>5.6670070583702987</v>
       </c>
       <c r="YN1">
-        <v>14.794962237136128</v>
+        <v>14.376674106366689</v>
       </c>
       <c r="YO1">
-        <v>7.604289803927629</v>
+        <v>7.4836687278117893</v>
       </c>
       <c r="YP1">
-        <v>16.635455273923192</v>
+        <v>16.294880526482665</v>
       </c>
       <c r="YQ1">
-        <v>9.2062947585135024</v>
+        <v>9.0155155835918048</v>
       </c>
       <c r="YR1">
-        <v>10.900939108688398</v>
+        <v>11.242589537941356</v>
       </c>
       <c r="YS1">
-        <v>8.7763461368664544</v>
+        <v>8.7711433899112485</v>
       </c>
       <c r="YT1">
-        <v>22.830493279641288</v>
+        <v>22.745012079446159</v>
       </c>
       <c r="YU1">
-        <v>13.600970434357734</v>
+        <v>13.201006618080219</v>
       </c>
       <c r="YV1">
-        <v>6.0250925525883874</v>
+        <v>6.2639741694187894</v>
       </c>
       <c r="YW1">
-        <v>6.5452100252753311</v>
+        <v>6.7728990459232747</v>
       </c>
       <c r="YX1">
-        <v>10.990120800515298</v>
+        <v>11.489991349221063</v>
       </c>
       <c r="YY1">
-        <v>10.143346035626038</v>
+        <v>9.9359873814988173</v>
       </c>
       <c r="YZ1">
-        <v>6.0349986292642983</v>
+        <v>6.2151781115420963</v>
       </c>
       <c r="ZA1">
-        <v>4.7845011687061216</v>
+        <v>4.8723309361099352</v>
       </c>
       <c r="ZB1">
-        <v>5.064412503374359</v>
+        <v>4.8488703240080291</v>
       </c>
       <c r="ZC1">
-        <v>10.34255024881368</v>
+        <v>10.219877645256158</v>
       </c>
       <c r="ZD1">
-        <v>21.962253301342791</v>
+        <v>21.772651714283494</v>
       </c>
       <c r="ZE1">
-        <v>3.362905292983962</v>
+        <v>3.3605671085493705</v>
       </c>
       <c r="ZF1">
-        <v>6.4594257398948214</v>
+        <v>6.5447822255268422</v>
       </c>
       <c r="ZG1">
-        <v>3.7918886954729896</v>
+        <v>3.7833606643551496</v>
       </c>
       <c r="ZH1">
-        <v>10.866546073009104</v>
+        <v>10.782330678290823</v>
       </c>
       <c r="ZI1">
-        <v>5.17805424425136</v>
+        <v>5.0357373922605628</v>
       </c>
       <c r="ZJ1">
-        <v>10.870825015142</v>
+        <v>10.852249016512992</v>
       </c>
       <c r="ZK1">
-        <v>12.804013849392906</v>
+        <v>12.769362108008867</v>
       </c>
       <c r="ZL1">
-        <v>5.7390219383729999</v>
+        <v>5.9349861374411441</v>
       </c>
       <c r="ZM1">
-        <v>15.895046291782229</v>
+        <v>15.642924807070758</v>
       </c>
       <c r="ZN1">
-        <v>11.323187486807589</v>
+        <v>11.233623763275411</v>
       </c>
       <c r="ZO1">
-        <v>5.4268755430127298</v>
+        <v>5.5523149604532867</v>
       </c>
       <c r="ZP1">
-        <v>19.323825190205728</v>
+        <v>19.756143378133196</v>
       </c>
       <c r="ZQ1">
-        <v>7.7796721861678133</v>
+        <v>7.8802858856667557</v>
       </c>
       <c r="ZR1">
-        <v>7.3475697264292572</v>
+        <v>7.3058276533104207</v>
       </c>
       <c r="ZS1">
-        <v>13.626276308793267</v>
+        <v>13.687632019414147</v>
       </c>
       <c r="ZT1">
-        <v>5.0085975012968085</v>
+        <v>5.0572888513836167</v>
       </c>
       <c r="ZU1">
-        <v>5.9887772045742604</v>
+        <v>6.0720194225252611</v>
       </c>
       <c r="ZV1">
-        <v>10.310112292765492</v>
+        <v>10.244127693848245</v>
       </c>
       <c r="ZW1">
-        <v>15.549283982994734</v>
+        <v>15.952883051014151</v>
       </c>
       <c r="ZX1">
-        <v>8.98938012061347</v>
+        <v>9.0924846428216171</v>
       </c>
       <c r="ZY1">
-        <v>8.2338383352106899</v>
+        <v>8.4541160277233978</v>
       </c>
       <c r="ZZ1">
-        <v>11.694067882937548</v>
+        <v>11.400269498475598</v>
       </c>
       <c r="AAA1">
-        <v>15.626403166100175</v>
+        <v>15.460666974104061</v>
       </c>
       <c r="AAB1">
-        <v>9.5527256029396117</v>
+        <v>9.7143549433998118</v>
       </c>
       <c r="AAC1">
-        <v>5.7368120986600477</v>
+        <v>5.6644499396651637</v>
       </c>
       <c r="AAD1">
-        <v>9.514885676497606</v>
+        <v>9.3144521427202314</v>
       </c>
       <c r="AAE1">
-        <v>9.1265053736727229</v>
+        <v>9.1436201494598119</v>
       </c>
       <c r="AAF1">
-        <v>17.562103493131843</v>
+        <v>17.829633978759627</v>
       </c>
       <c r="AAG1">
-        <v>17.214519490004776</v>
+        <v>17.204030632714087</v>
       </c>
       <c r="AAH1">
-        <v>3.8264572989193635</v>
+        <v>3.6824817861782217</v>
       </c>
       <c r="AAI1">
-        <v>12.752499589637642</v>
+        <v>13.129756747187551</v>
       </c>
       <c r="AAJ1">
-        <v>3.9568421903941138</v>
+        <v>3.9552411457371219</v>
       </c>
       <c r="AAK1">
-        <v>7.9036143803286665</v>
+        <v>8.0180466308540659</v>
       </c>
       <c r="AAL1">
-        <v>16.45080077980748</v>
+        <v>16.570867062705197</v>
       </c>
       <c r="AAM1">
-        <v>12.300929395325118</v>
+        <v>12.136443306523184</v>
       </c>
       <c r="AAN1">
-        <v>7.0361240533398588</v>
+        <v>6.7998604488568475</v>
       </c>
       <c r="AAO1">
-        <v>11.714628782878405</v>
+        <v>11.696952364652988</v>
       </c>
       <c r="AAP1">
-        <v>9.2653729883798217</v>
+        <v>9.2129655611657046</v>
       </c>
       <c r="AAQ1">
-        <v>18.376024367253155</v>
+        <v>18.523882686049443</v>
       </c>
       <c r="AAR1">
-        <v>6.3809488338889429</v>
+        <v>6.3269309480878384</v>
       </c>
       <c r="AAS1">
-        <v>9.4990031525416558</v>
+        <v>9.5580263856870431</v>
       </c>
       <c r="AAT1">
-        <v>7.5208084850862109</v>
+        <v>7.560273921404244</v>
       </c>
       <c r="AAU1">
-        <v>5.9546052051401546</v>
+        <v>5.7848768164242435</v>
       </c>
       <c r="AAV1">
-        <v>8.8974949861362234</v>
+        <v>8.5693809082234367</v>
       </c>
       <c r="AAW1">
-        <v>18.174767079307834</v>
+        <v>18.544149332860457</v>
       </c>
       <c r="AAX1">
-        <v>13.470889668534662</v>
+        <v>13.393368244903822</v>
       </c>
       <c r="AAY1">
-        <v>5.2311720659663079</v>
+        <v>5.2104684806450656</v>
       </c>
       <c r="AAZ1">
-        <v>10.115778797377269</v>
+        <v>10.27234135015078</v>
       </c>
       <c r="ABA1">
-        <v>12.905779802292232</v>
+        <v>13.372120018716688</v>
       </c>
       <c r="ABB1">
-        <v>8.223980536203527</v>
+        <v>8.1739384939584845</v>
       </c>
       <c r="ABC1">
-        <v>11.737076717661491</v>
+        <v>11.681503622326565</v>
       </c>
       <c r="ABD1">
-        <v>14.058663740948719</v>
+        <v>14.121045654720065</v>
       </c>
       <c r="ABE1">
-        <v>4.1704315184609744</v>
+        <v>4.3989195549563611</v>
       </c>
       <c r="ABF1">
-        <v>5.8865032737983523</v>
+        <v>5.7380103059441767</v>
       </c>
       <c r="ABG1">
-        <v>9.5384825955389001</v>
+        <v>9.4811339998288133</v>
       </c>
       <c r="ABH1">
-        <v>4.9697485792445608</v>
+        <v>5.0184134610752817</v>
       </c>
       <c r="ABI1">
-        <v>4.5199097367085681</v>
+        <v>4.3913785323532046</v>
       </c>
       <c r="ABJ1">
-        <v>11.575766315984785</v>
+        <v>11.252804094024661</v>
       </c>
       <c r="ABK1">
-        <v>11.526502276408609</v>
+        <v>11.315000424425051</v>
       </c>
       <c r="ABL1">
-        <v>12.089845805109745</v>
+        <v>11.821244895553523</v>
       </c>
       <c r="ABM1">
-        <v>8.1465256653897065</v>
+        <v>8.3559214234511359</v>
       </c>
       <c r="ABN1">
-        <v>11.761132740576381</v>
+        <v>11.563236205523356</v>
       </c>
       <c r="ABO1">
-        <v>10.895846255692916</v>
+        <v>10.851075857805121</v>
       </c>
       <c r="ABP1">
-        <v>7.2107293554536467</v>
+        <v>7.4907174212797241</v>
       </c>
       <c r="ABQ1">
-        <v>14.392972119653578</v>
+        <v>14.473647545741326</v>
       </c>
       <c r="ABR1">
-        <v>8.4851687786189736</v>
+        <v>8.755622063300855</v>
       </c>
       <c r="ABS1">
-        <v>7.9633843130886506</v>
+        <v>7.8656118141824267</v>
       </c>
       <c r="ABT1">
-        <v>19.747085755348149</v>
+        <v>19.464877756498531</v>
       </c>
       <c r="ABU1">
-        <v>9.9139976910330052</v>
+        <v>10.137426685182909</v>
       </c>
       <c r="ABV1">
-        <v>14.426855554157513</v>
+        <v>14.234615321018619</v>
       </c>
       <c r="ABW1">
-        <v>5.6062703553827493</v>
+        <v>5.5709802945233644</v>
       </c>
       <c r="ABX1">
-        <v>5.2816173424931234</v>
+        <v>5.1154317813232018</v>
       </c>
       <c r="ABY1">
-        <v>18.766866650684719</v>
+        <v>19.36256278802502</v>
       </c>
       <c r="ABZ1">
-        <v>12.040853938688397</v>
+        <v>11.858807451552842</v>
       </c>
       <c r="ACA1">
-        <v>21.897101222447471</v>
+        <v>22.406188418676656</v>
       </c>
       <c r="ACB1">
-        <v>23.033348587030538</v>
+        <v>23.465216825430382</v>
       </c>
       <c r="ACC1">
-        <v>6.5313472354196014</v>
+        <v>6.522151692615985</v>
       </c>
       <c r="ACD1">
-        <v>7.519297796235981</v>
+        <v>7.3763689241655417</v>
       </c>
       <c r="ACE1">
-        <v>10.052204632992034</v>
+        <v>10.240501877666373</v>
       </c>
       <c r="ACF1">
-        <v>13.145315173202178</v>
+        <v>13.341961719120455</v>
       </c>
       <c r="ACG1">
-        <v>16.548843167522726</v>
+        <v>16.740949837703248</v>
       </c>
       <c r="ACH1">
-        <v>12.904982863431636</v>
+        <v>12.60009015855549</v>
       </c>
       <c r="ACI1">
-        <v>26.144595672964677</v>
+        <v>26.106050724068233</v>
       </c>
       <c r="ACJ1">
-        <v>7.1795642194104179</v>
+        <v>7.1551249163066171</v>
       </c>
       <c r="ACK1">
-        <v>8.5133099203394256</v>
+        <v>8.5784366921722341</v>
       </c>
       <c r="ACL1">
-        <v>5.3088270907483501</v>
+        <v>5.1442605212157089</v>
       </c>
       <c r="ACM1">
-        <v>7.3358118425101777</v>
+        <v>7.1462354373836741</v>
       </c>
       <c r="ACN1">
-        <v>6.7163895146400119</v>
+        <v>6.5621877764086847</v>
       </c>
       <c r="ACO1">
-        <v>7.8125543662320291</v>
+        <v>7.867959524118854</v>
       </c>
       <c r="ACP1">
-        <v>12.207509409489635</v>
+        <v>12.504846372888171</v>
       </c>
       <c r="ACQ1">
-        <v>7.1034925122879047</v>
+        <v>7.0190632068827217</v>
       </c>
       <c r="ACR1">
-        <v>9.3734250171918703</v>
+        <v>9.4835128557844683</v>
       </c>
       <c r="ACS1">
-        <v>13.168448420231703</v>
+        <v>13.296702972882452</v>
       </c>
       <c r="ACT1">
-        <v>14.021262006136613</v>
+        <v>13.979417722887442</v>
       </c>
       <c r="ACU1">
-        <v>9.4119879478065336</v>
+        <v>9.3502712314443421</v>
       </c>
       <c r="ACV1">
-        <v>7.2881887963728946</v>
+        <v>7.1379883236018484</v>
       </c>
       <c r="ACW1">
-        <v>17.245670316699378</v>
+        <v>17.31757967393024</v>
       </c>
       <c r="ACX1">
-        <v>9.5782704237828895</v>
+        <v>9.4321498922580371</v>
       </c>
       <c r="ACY1">
-        <v>6.1413392932233357</v>
+        <v>6.1584456398422533</v>
       </c>
       <c r="ACZ1">
-        <v>7.7651976521069876</v>
+        <v>7.8044502308593957</v>
       </c>
       <c r="ADA1">
-        <v>22.412629203612248</v>
+        <v>21.933740064764436</v>
       </c>
       <c r="ADB1">
-        <v>13.180888860951054</v>
+        <v>13.174063555480711</v>
       </c>
       <c r="ADC1">
-        <v>8.2752243036510382</v>
+        <v>8.054419044987748</v>
       </c>
       <c r="ADD1">
-        <v>10.587107994293028</v>
+        <v>10.449726568380719</v>
       </c>
       <c r="ADE1">
-        <v>9.5244742359731305</v>
+        <v>9.4058871458813087</v>
       </c>
       <c r="ADF1">
-        <v>20.04844080397784</v>
+        <v>19.980282460645089</v>
       </c>
       <c r="ADG1">
-        <v>20.480743940900151</v>
+        <v>19.995817480004312</v>
       </c>
       <c r="ADH1">
-        <v>5.5414683847915409</v>
+        <v>5.4094412242854339</v>
       </c>
       <c r="ADI1">
-        <v>8.8937028301840346</v>
+        <v>8.928279464055823</v>
       </c>
       <c r="ADJ1">
-        <v>11.211402684909313</v>
+        <v>11.035974583856694</v>
       </c>
       <c r="ADK1">
-        <v>5.7539481288243124</v>
+        <v>6.0338111751090358</v>
       </c>
       <c r="ADL1">
-        <v>6.0372599629617811</v>
+        <v>5.9111683921795386</v>
       </c>
       <c r="ADM1">
-        <v>7.3431583446820063</v>
+        <v>7.2095431143573689</v>
       </c>
       <c r="ADN1">
-        <v>5.2647507107609881</v>
+        <v>5.4862533052569704</v>
       </c>
       <c r="ADO1">
-        <v>4.0326553138513894</v>
+        <v>4.0756353652733237</v>
       </c>
       <c r="ADP1">
-        <v>11.544696362172662</v>
+        <v>11.306055904869446</v>
       </c>
       <c r="ADQ1">
-        <v>17.40419317824853</v>
+        <v>17.337906682193143</v>
       </c>
       <c r="ADR1">
-        <v>9.6242736576206482</v>
+        <v>9.4170053990710052</v>
       </c>
       <c r="ADS1">
-        <v>13.297664072242625</v>
+        <v>13.131528655444699</v>
       </c>
       <c r="ADT1">
-        <v>12.102775187133547</v>
+        <v>12.054689155302203</v>
       </c>
       <c r="ADU1">
-        <v>6.9232392662125921</v>
+        <v>7.0275526394794507</v>
       </c>
       <c r="ADV1">
-        <v>14.184243818791183</v>
+        <v>13.835516790445665</v>
       </c>
       <c r="ADW1">
-        <v>8.9837350804102662</v>
+        <v>9.165246953433785</v>
       </c>
       <c r="ADX1">
-        <v>7.7583794833327966</v>
+        <v>8.0143718633016068</v>
       </c>
       <c r="ADY1">
-        <v>10.05901712193201</v>
+        <v>9.8295941538121969</v>
       </c>
       <c r="ADZ1">
-        <v>5.5714860885470889</v>
+        <v>5.3648978758822174</v>
       </c>
       <c r="AEA1">
-        <v>7.0631687665436687</v>
+        <v>7.0996354921467226</v>
       </c>
       <c r="AEB1">
-        <v>15.749764148478516</v>
+        <v>15.566205176546736</v>
       </c>
       <c r="AEC1">
-        <v>7.5203236026922209</v>
+        <v>7.6898620320399216</v>
       </c>
       <c r="AED1">
-        <v>15.007699458714693</v>
+        <v>14.928064826938357</v>
       </c>
       <c r="AEE1">
-        <v>15.212371312964629</v>
+        <v>15.272708304011342</v>
       </c>
       <c r="AEF1">
-        <v>13.869743092488264</v>
+        <v>13.935873623324456</v>
       </c>
       <c r="AEG1">
-        <v>14.19806504375553</v>
+        <v>13.915576501073527</v>
       </c>
       <c r="AEH1">
-        <v>4.9365960142206307</v>
+        <v>4.8269150702815615</v>
       </c>
       <c r="AEI1">
-        <v>18.823538999225036</v>
+        <v>18.54714231860455</v>
       </c>
       <c r="AEJ1">
-        <v>3.3113815441534284</v>
+        <v>3.2398092556494662</v>
       </c>
       <c r="AEK1">
-        <v>12.234819401162227</v>
+        <v>12.255823066134493</v>
       </c>
       <c r="AEL1">
-        <v>4.8681415234307348</v>
+        <v>4.7743202928565491</v>
       </c>
       <c r="AEM1">
-        <v>4.0909195837588106</v>
+        <v>4.2574117754886007</v>
       </c>
       <c r="AEN1">
-        <v>5.0634106503874694</v>
+        <v>5.0708577309803067</v>
       </c>
       <c r="AEO1">
-        <v>12.43785220676217</v>
+        <v>12.439332064932309</v>
       </c>
       <c r="AEP1">
-        <v>8.6483877472264457</v>
+        <v>8.8604401248567282</v>
       </c>
       <c r="AEQ1">
-        <v>15.557522572782155</v>
+        <v>15.756805940124245</v>
       </c>
       <c r="AER1">
-        <v>9.9455022426063362</v>
+        <v>9.7301437076555359</v>
       </c>
       <c r="AES1">
-        <v>6.7135933295343602</v>
+        <v>6.7443522674793179</v>
       </c>
       <c r="AET1">
-        <v>3.7144398456139402</v>
+        <v>3.8302981016652682</v>
       </c>
       <c r="AEU1">
-        <v>7.561077821920545</v>
+        <v>7.4805428827612133</v>
       </c>
       <c r="AEV1">
-        <v>5.5040194833955454</v>
+        <v>5.6249288200188339</v>
       </c>
       <c r="AEW1">
-        <v>6.2706662419554551</v>
+        <v>6.0194060520732018</v>
       </c>
       <c r="AEX1">
-        <v>6.4369890047533396</v>
+        <v>6.2136198556491351</v>
       </c>
       <c r="AEY1">
-        <v>7.0315666838040949</v>
+        <v>6.9037795878548822</v>
       </c>
       <c r="AEZ1">
-        <v>12.619601204265329</v>
+        <v>12.99075644113363</v>
       </c>
       <c r="AFA1">
-        <v>14.562393001762633</v>
+        <v>14.142419582121821</v>
       </c>
       <c r="AFB1">
-        <v>7.6953993505092262</v>
+        <v>7.5140340098286504</v>
       </c>
       <c r="AFC1">
-        <v>7.0295793953013312</v>
+        <v>6.980908443990165</v>
       </c>
       <c r="AFD1">
-        <v>10.711670265685942</v>
+        <v>10.579847193160063</v>
       </c>
       <c r="AFE1">
-        <v>8.6637119134178882</v>
+        <v>8.4997250619953633</v>
       </c>
       <c r="AFF1">
-        <v>5.641899265249803</v>
+        <v>5.3877790192820036</v>
       </c>
       <c r="AFG1">
-        <v>9.5403101587447399</v>
+        <v>9.6855516771957166</v>
       </c>
       <c r="AFH1">
-        <v>14.038188985218486</v>
+        <v>14.395869506182024</v>
       </c>
       <c r="AFI1">
-        <v>12.863016930036752</v>
+        <v>12.90014408624366</v>
       </c>
       <c r="AFJ1">
-        <v>18.976285768768747</v>
+        <v>18.915539463617634</v>
       </c>
       <c r="AFK1">
-        <v>6.6825505275406591</v>
+        <v>6.8995847173953262</v>
       </c>
       <c r="AFL1">
-        <v>10.162336750400046</v>
+        <v>10.153669784876673</v>
       </c>
       <c r="AFM1">
-        <v>10.334726490174138</v>
+        <v>10.55021519196694</v>
       </c>
       <c r="AFN1">
-        <v>5.7199610112101942</v>
+        <v>5.5621565147715559</v>
       </c>
       <c r="AFO1">
-        <v>3.9878336289521532</v>
+        <v>4.0186134800207922</v>
       </c>
       <c r="AFP1">
-        <v>9.0450173235966673</v>
+        <v>9.1402358717501553</v>
       </c>
       <c r="AFQ1">
-        <v>8.9802592154633469</v>
+        <v>9.0330869950206907</v>
       </c>
       <c r="AFR1">
-        <v>10.247568901728696</v>
+        <v>10.492428144542064</v>
       </c>
       <c r="AFS1">
-        <v>8.3735955881058288</v>
+        <v>8.65893524663303</v>
       </c>
       <c r="AFT1">
-        <v>5.627817895553255</v>
+        <v>5.7414041258252784</v>
       </c>
       <c r="AFU1">
-        <v>18.041492595687806</v>
+        <v>18.34852050058311</v>
       </c>
       <c r="AFV1">
-        <v>2.5846803958577862</v>
+        <v>2.4182802991130847</v>
       </c>
       <c r="AFW1">
-        <v>7.5864373745930447</v>
+        <v>7.2815796437447222</v>
       </c>
       <c r="AFX1">
-        <v>19.304505750115844</v>
+        <v>19.278009549780037</v>
       </c>
       <c r="AFY1">
-        <v>12.544974748753878</v>
+        <v>12.517733892390927</v>
       </c>
       <c r="AFZ1">
-        <v>7.3041249392964556</v>
+        <v>7.4007713211270865</v>
       </c>
       <c r="AGA1">
-        <v>10.050639400656877</v>
+        <v>9.7450601774064136</v>
       </c>
       <c r="AGB1">
-        <v>2.9620551416989844</v>
+        <v>2.7970603558583274</v>
       </c>
       <c r="AGC1">
-        <v>7.5663413851480197</v>
+        <v>7.6873340191637691</v>
       </c>
       <c r="AGD1">
-        <v>10.383825405645787</v>
+        <v>10.239083730125522</v>
       </c>
       <c r="AGE1">
-        <v>8.3833331030134701</v>
+        <v>8.4312356717579462</v>
       </c>
       <c r="AGF1">
-        <v>9.5128444444029512</v>
+        <v>9.4142110487857575</v>
       </c>
       <c r="AGG1">
-        <v>8.6628645881085777</v>
+        <v>8.5576926264778841</v>
       </c>
       <c r="AGH1">
-        <v>7.0865847114115503</v>
+        <v>7.0287194896227962</v>
       </c>
       <c r="AGI1">
-        <v>14.251331803251277</v>
+        <v>13.915134646764539</v>
       </c>
       <c r="AGJ1">
-        <v>10.106390633705866</v>
+        <v>10.134119888595105</v>
       </c>
       <c r="AGK1">
-        <v>9.0767956103540897</v>
+        <v>8.8755243813362981</v>
       </c>
       <c r="AGL1">
-        <v>7.5896271380107709</v>
+        <v>7.2936366278717575</v>
       </c>
       <c r="AGM1">
-        <v>5.25339758960315</v>
+        <v>5.452160996531183</v>
       </c>
       <c r="AGN1">
-        <v>10.45886061335824</v>
+        <v>10.283095508059777</v>
       </c>
       <c r="AGO1">
-        <v>9.5516825920299357</v>
+        <v>9.5993162688839355</v>
       </c>
       <c r="AGP1">
-        <v>9.395664020279483</v>
+        <v>9.3559142905315333</v>
       </c>
       <c r="AGQ1">
-        <v>8.3269828353883693</v>
+        <v>8.2258834521673077</v>
       </c>
       <c r="AGR1">
-        <v>5.094912210980536</v>
+        <v>5.1019614512007472</v>
       </c>
       <c r="AGS1">
-        <v>4.7876441968487402</v>
+        <v>4.5951801407806663</v>
       </c>
       <c r="AGT1">
-        <v>8.1295362553547044</v>
+        <v>8.4099231490594129</v>
       </c>
       <c r="AGU1">
-        <v>18.527209161140405</v>
+        <v>18.605090721932832</v>
       </c>
       <c r="AGV1">
-        <v>9.4640988618927473</v>
+        <v>9.3371951163848355</v>
       </c>
       <c r="AGW1">
-        <v>10.884328854547938</v>
+        <v>10.642127448889909</v>
       </c>
       <c r="AGX1">
-        <v>5.0615540682863758</v>
+        <v>5.1985086859506486</v>
       </c>
       <c r="AGY1">
-        <v>12.378038521890964</v>
+        <v>12.479236891636592</v>
       </c>
       <c r="AGZ1">
-        <v>12.280751578863338</v>
+        <v>12.372279408930645</v>
       </c>
       <c r="AHA1">
-        <v>5.6309564165818902</v>
+        <v>5.5459843718651261</v>
       </c>
       <c r="AHB1">
-        <v>12.554802873314141</v>
+        <v>12.60567150898753</v>
       </c>
       <c r="AHC1">
-        <v>5.7297481119041489</v>
+        <v>5.8395010304512649</v>
       </c>
       <c r="AHD1">
-        <v>8.5277875886242036</v>
+        <v>8.9586057901379235</v>
       </c>
       <c r="AHE1">
-        <v>13.161402482415214</v>
+        <v>13.199229365133339</v>
       </c>
       <c r="AHF1">
-        <v>14.685577234309514</v>
+        <v>14.446567494244563</v>
       </c>
       <c r="AHG1">
-        <v>16.168239555999453</v>
+        <v>16.148497859160418</v>
       </c>
       <c r="AHH1">
-        <v>16.101355635474519</v>
+        <v>16.08213312235883</v>
       </c>
       <c r="AHI1">
-        <v>17.787958591292327</v>
+        <v>17.540534879887936</v>
       </c>
       <c r="AHJ1">
-        <v>4.172753265772867</v>
+        <v>4.1346667414696823</v>
       </c>
       <c r="AHK1">
-        <v>4.8977676849386063</v>
+        <v>4.7220134279644865</v>
       </c>
       <c r="AHL1">
-        <v>8.25509569187283</v>
+        <v>8.0985260283533123</v>
       </c>
       <c r="AHM1">
-        <v>7.9682416140996537</v>
+        <v>7.8391997349462397</v>
       </c>
       <c r="AHN1">
-        <v>7.1332981577279098</v>
+        <v>7.2156568326955011</v>
       </c>
       <c r="AHO1">
-        <v>7.901618558832296</v>
+        <v>7.9874928172134396</v>
       </c>
       <c r="AHP1">
-        <v>13.604263590986784</v>
+        <v>13.402723236728745</v>
       </c>
       <c r="AHQ1">
-        <v>9.7619566821121069</v>
+        <v>9.5454625510123314</v>
       </c>
       <c r="AHR1">
-        <v>5.0372495152090462</v>
+        <v>5.4595284963459951</v>
       </c>
       <c r="AHS1">
-        <v>7.7850763629452366</v>
+        <v>7.8635678307716779</v>
       </c>
       <c r="AHT1">
-        <v>8.4331067403515867</v>
+        <v>8.4449243532240068</v>
       </c>
       <c r="AHU1">
-        <v>2.9507152919269339</v>
+        <v>2.9589172322665878</v>
       </c>
       <c r="AHV1">
-        <v>3.3739171181698682</v>
+        <v>3.3799448479322924</v>
       </c>
       <c r="AHW1">
-        <v>6.2909928462584714</v>
+        <v>5.9719419596463981</v>
       </c>
       <c r="AHX1">
-        <v>8.9095684397556596</v>
+        <v>9.0103878557024863</v>
       </c>
       <c r="AHY1">
-        <v>10.456367782181459</v>
+        <v>10.686609342611391</v>
       </c>
       <c r="AHZ1">
-        <v>4.3897615968105317</v>
+        <v>4.3077937125797341</v>
       </c>
       <c r="AIA1">
-        <v>10.149786874837362</v>
+        <v>10.192036631542681</v>
       </c>
       <c r="AIB1">
-        <v>13.638582616854343</v>
+        <v>13.353794366942104</v>
       </c>
       <c r="AIC1">
-        <v>4.1089027979243804</v>
+        <v>4.1307169916669135</v>
       </c>
       <c r="AID1">
-        <v>12.816277102965824</v>
+        <v>12.796556336633492</v>
       </c>
       <c r="AIE1">
-        <v>15.217860559704006</v>
+        <v>15.174050412689294</v>
       </c>
       <c r="AIF1">
-        <v>6.5579685464484712</v>
+        <v>6.5589131825810334</v>
       </c>
       <c r="AIG1">
-        <v>7.0587504859087762</v>
+        <v>7.056464113613373</v>
       </c>
       <c r="AIH1">
-        <v>9.0597394999525704</v>
+        <v>8.7900917817485045</v>
       </c>
       <c r="AII1">
-        <v>4.6666165724193256</v>
+        <v>4.7290331565454427</v>
       </c>
       <c r="AIJ1">
-        <v>9.5486500315803369</v>
+        <v>9.6759668205732332</v>
       </c>
       <c r="AIK1">
-        <v>12.095225824286238</v>
+        <v>12.382481657377618</v>
       </c>
       <c r="AIL1">
-        <v>10.903663879463753</v>
+        <v>11.041587927899164</v>
       </c>
       <c r="AIM1">
-        <v>7.278293029592886</v>
+        <v>7.4504673652291835</v>
       </c>
       <c r="AIN1">
-        <v>7.4511682268852297</v>
+        <v>7.522579608063273</v>
       </c>
       <c r="AIO1">
-        <v>13.799249989062126</v>
+        <v>14.071742017540236</v>
       </c>
       <c r="AIP1">
-        <v>4.2825693948073118</v>
+        <v>4.3805814394772895</v>
       </c>
       <c r="AIQ1">
-        <v>12.769430180696279</v>
+        <v>12.762894215388091</v>
       </c>
       <c r="AIR1">
-        <v>12.269292845079486</v>
+        <v>12.099966554742331</v>
       </c>
       <c r="AIS1">
-        <v>16.944153465563083</v>
+        <v>16.551873967647595</v>
       </c>
       <c r="AIT1">
-        <v>16.438167065647214</v>
+        <v>16.401882842189199</v>
       </c>
       <c r="AIU1">
-        <v>7.9908120642809957</v>
+        <v>8.1634292857130841</v>
       </c>
       <c r="AIV1">
-        <v>14.041895107867941</v>
+        <v>14.01669003073326</v>
       </c>
       <c r="AIW1">
-        <v>17.101464919931058</v>
+        <v>17.055594728928558</v>
       </c>
       <c r="AIX1">
-        <v>7.6241616241443708</v>
+        <v>7.6580722193341417</v>
       </c>
       <c r="AIY1">
-        <v>11.22049218198342</v>
+        <v>11.209455860939345</v>
       </c>
       <c r="AIZ1">
-        <v>14.025310720569145</v>
+        <v>14.583211980706553</v>
       </c>
       <c r="AJA1">
-        <v>8.4687108315421362</v>
+        <v>8.6745915812572942</v>
       </c>
       <c r="AJB1">
-        <v>7.9830622105496341</v>
+        <v>7.7286855198800186</v>
       </c>
       <c r="AJC1">
-        <v>11.904773323746918</v>
+        <v>12.055906877879146</v>
       </c>
       <c r="AJD1">
-        <v>3.6422963532081436</v>
+        <v>3.701195389723257</v>
       </c>
       <c r="AJE1">
-        <v>10.563365272207244</v>
+        <v>10.402019411385714</v>
       </c>
       <c r="AJF1">
-        <v>9.5184663195038741</v>
+        <v>9.426148346069489</v>
       </c>
       <c r="AJG1">
-        <v>11.601053085381126</v>
+        <v>11.541665139849794</v>
       </c>
       <c r="AJH1">
-        <v>6.7757384046210287</v>
+        <v>6.8772598981721176</v>
       </c>
       <c r="AJI1">
-        <v>14.6298178801995</v>
+        <v>14.573368925280406</v>
       </c>
       <c r="AJJ1">
-        <v>11.913666400959746</v>
+        <v>12.097901318408422</v>
       </c>
       <c r="AJK1">
-        <v>5.7868410591751651</v>
+        <v>5.6622862760158412</v>
       </c>
       <c r="AJL1">
-        <v>14.435718665970866</v>
+        <v>14.976787969722226</v>
       </c>
       <c r="AJM1">
-        <v>9.8956411934416142</v>
+        <v>9.687985840098591</v>
       </c>
       <c r="AJN1">
-        <v>9.7383630006008186</v>
+        <v>9.9944455519267308</v>
       </c>
       <c r="AJO1">
-        <v>6.6300959365043486</v>
+        <v>6.6591643761662258</v>
       </c>
       <c r="AJP1">
-        <v>10.476590075106136</v>
+        <v>10.385362653245988</v>
       </c>
       <c r="AJQ1">
-        <v>9.6826658105513843</v>
+        <v>9.5515460910555809</v>
       </c>
       <c r="AJR1">
-        <v>8.0616266771399303</v>
+        <v>8.1352242640200814</v>
       </c>
       <c r="AJS1">
-        <v>14.491754655371281</v>
+        <v>14.941345318903014</v>
       </c>
       <c r="AJT1">
-        <v>9.395217407570307</v>
+        <v>9.6248180027532122</v>
       </c>
       <c r="AJU1">
-        <v>5.8100003247329592</v>
+        <v>6.071515149679259</v>
       </c>
       <c r="AJV1">
-        <v>5.3529529893350416</v>
+        <v>5.2177804507946188</v>
       </c>
       <c r="AJW1">
-        <v>8.505263176053468</v>
+        <v>8.3425559732457994</v>
       </c>
       <c r="AJX1">
-        <v>16.985754485055963</v>
+        <v>17.184251056324783</v>
       </c>
       <c r="AJY1">
-        <v>2.5783542414147167</v>
+        <v>2.6468758450330947</v>
       </c>
       <c r="AJZ1">
-        <v>12.493031172045516</v>
+        <v>12.608412035906062</v>
       </c>
       <c r="AKA1">
-        <v>14.277375328283291</v>
+        <v>14.118516276411659</v>
       </c>
       <c r="AKB1">
-        <v>12.804787748155228</v>
+        <v>12.813841261797812</v>
       </c>
       <c r="AKC1">
-        <v>16.724020542229223</v>
+        <v>16.524241840657623</v>
       </c>
       <c r="AKD1">
-        <v>8.59170296703339</v>
+        <v>8.7547708265021704</v>
       </c>
       <c r="AKE1">
-        <v>10.813699637946092</v>
+        <v>10.653060386107288</v>
       </c>
       <c r="AKF1">
-        <v>6.8262317931115941</v>
+        <v>6.902709197546514</v>
       </c>
       <c r="AKG1">
-        <v>5.0864856117081239</v>
+        <v>5.280287729348613</v>
       </c>
       <c r="AKH1">
-        <v>18.810967384098713</v>
+        <v>18.770606452677818</v>
       </c>
       <c r="AKI1">
-        <v>11.142683929655856</v>
+        <v>11.061492600784053</v>
       </c>
       <c r="AKJ1">
-        <v>6.0180787469201347</v>
+        <v>6.0037799553935534</v>
       </c>
       <c r="AKK1">
-        <v>7.1558735270655767</v>
+        <v>7.2624251112593985</v>
       </c>
       <c r="AKL1">
-        <v>4.1046912184918645</v>
+        <v>4.3425357276723187</v>
       </c>
       <c r="AKM1">
-        <v>11.041669318183327</v>
+        <v>10.769511377152863</v>
       </c>
       <c r="AKN1">
-        <v>4.3991683150388674</v>
+        <v>4.5125101775695544</v>
       </c>
       <c r="AKO1">
-        <v>7.9380944778758469</v>
+        <v>8.1669663001562771</v>
       </c>
       <c r="AKP1">
-        <v>13.367674206858297</v>
+        <v>13.286381959071928</v>
       </c>
       <c r="AKQ1">
-        <v>6.3966954121940374</v>
+        <v>6.6408093653507967</v>
       </c>
       <c r="AKR1">
-        <v>9.9349891564729127</v>
+        <v>9.7798790940771738</v>
       </c>
       <c r="AKS1">
-        <v>9.1772188597276809</v>
+        <v>9.3429156036281054</v>
       </c>
       <c r="AKT1">
-        <v>11.093222211130584</v>
+        <v>11.107129004243891</v>
       </c>
       <c r="AKU1">
-        <v>4.3747282032105561</v>
+        <v>4.4309681258769125</v>
       </c>
       <c r="AKV1">
-        <v>13.80705501327412</v>
+        <v>13.719850059591977</v>
       </c>
       <c r="AKW1">
-        <v>6.4007995793020864</v>
+        <v>6.4159204074022398</v>
       </c>
       <c r="AKX1">
-        <v>13.242530235245864</v>
+        <v>13.082949436210175</v>
       </c>
       <c r="AKY1">
-        <v>9.1446321903086947</v>
+        <v>9.1700786083284971</v>
       </c>
       <c r="AKZ1">
-        <v>10.637323088646164</v>
+        <v>10.577866530142375</v>
       </c>
       <c r="ALA1">
-        <v>5.4683991753469936</v>
+        <v>5.3734070043905433</v>
       </c>
       <c r="ALB1">
-        <v>6.2700250292825848</v>
+        <v>6.522514562446184</v>
       </c>
       <c r="ALC1">
-        <v>9.1256390890291375</v>
+        <v>9.2911189190030985</v>
       </c>
       <c r="ALD1">
-        <v>10.4707619132151</v>
+        <v>10.190377636760237</v>
       </c>
       <c r="ALE1">
-        <v>5.7744052832112924</v>
+        <v>5.9477540530449069</v>
       </c>
       <c r="ALF1">
-        <v>9.6498922475604871</v>
+        <v>9.3057914071290533</v>
       </c>
       <c r="ALG1">
-        <v>6.0238593435398737</v>
+        <v>6.1877818143190142</v>
       </c>
       <c r="ALH1">
-        <v>6.322382108600122</v>
+        <v>6.2951862052986201</v>
       </c>
       <c r="ALI1">
-        <v>7.004495941486149</v>
+        <v>6.654920922076939</v>
       </c>
       <c r="ALJ1">
-        <v>11.787243624027219</v>
+        <v>11.898886485352516</v>
       </c>
       <c r="ALK1">
-        <v>8.0367763741514864</v>
+        <v>7.9195361248006968</v>
       </c>
       <c r="ALL1">
-        <v>7.6681968828708467</v>
+        <v>7.6887066856919226</v>
       </c>
     </row>
   </sheetData>
